--- a/capiq_data/in_process_data/IQ29753.xlsx
+++ b/capiq_data/in_process_data/IQ29753.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447023A-9313-49DF-ABE8-3B09BD7324DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B25FD1-DA40-4477-8AE3-96E0137A4BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"013f6a16-7c93-436a-84b9-4c53b59202f4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"5c29be91-0c72-4b11-bce3-08dffde142e5"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>38.44</v>
+        <v>-4.6159499999999998</v>
       </c>
       <c r="D2">
-        <v>261.298</v>
+        <v>0.48454999999999998</v>
       </c>
       <c r="E2">
-        <v>163.43100000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="F2">
-        <v>168.42099999999999</v>
+        <v>0.48454999999999998</v>
       </c>
       <c r="G2">
-        <v>1258.3979999999999</v>
+        <v>129.06700000000001</v>
       </c>
       <c r="H2">
-        <v>1839.1130000000001</v>
+        <v>132.79300000000001</v>
       </c>
       <c r="I2">
-        <v>66.744</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>534.51700000000005</v>
+        <v>2.806</v>
       </c>
       <c r="O2">
-        <v>641.43799999999999</v>
+        <v>8.6929999999999996</v>
       </c>
       <c r="P2">
-        <v>311.60899999999998</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="Q2">
-        <v>38.18</v>
+        <v>-5.4807300000000003</v>
       </c>
       <c r="R2">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2100</v>
+        <v>105</v>
       </c>
       <c r="T2">
-        <v>1197.675</v>
+        <v>124.1</v>
       </c>
       <c r="U2">
-        <v>248.947</v>
+        <v>116.102</v>
       </c>
       <c r="V2">
-        <v>81.480999999999995</v>
+        <v>-10.21969</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>26.544</v>
+        <v>-0.11311</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="Z2">
-        <v>-57.521999999999998</v>
+        <v>-3.3509999999999998E-2</v>
       </c>
       <c r="AA2">
-        <v>38.44</v>
+        <v>-4.6159499999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>24.137</v>
+        <v>-4.9180000000000001</v>
       </c>
       <c r="D3">
-        <v>282.51499999999999</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E3">
-        <v>181.92400000000001</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>191.02600000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G3">
-        <v>1511.473</v>
+        <v>125.70414</v>
       </c>
       <c r="H3">
-        <v>2123.1489999999999</v>
+        <v>130.69272000000001</v>
       </c>
       <c r="I3">
-        <v>66.287000000000006</v>
+        <v>3.1736</v>
       </c>
       <c r="J3">
-        <v>652.08299999999997</v>
+        <v>0.81601000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-253.13499999999999</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="N3">
-        <v>345.31299999999999</v>
+        <v>3.4429799999999999</v>
       </c>
       <c r="O3">
-        <v>1058.923</v>
+        <v>9.4464799999999993</v>
       </c>
       <c r="P3">
-        <v>763.40599999999995</v>
+        <v>1.08538</v>
       </c>
       <c r="Q3">
-        <v>161.39400000000001</v>
+        <v>-2.5030000000000001</v>
       </c>
       <c r="R3">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1064.2260000000001</v>
+        <v>121.24624</v>
       </c>
       <c r="U3">
-        <v>410.34100000000001</v>
+        <v>113.59912</v>
       </c>
       <c r="V3">
-        <v>88.578000000000003</v>
+        <v>-2.2890000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>225.48099999999999</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-82.16</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AA3">
-        <v>24.137</v>
+        <v>-4.9180000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>30.62</v>
+        <v>-5.8929999999999998</v>
       </c>
       <c r="D4">
-        <v>287.45</v>
+        <v>0.47</v>
       </c>
       <c r="E4">
-        <v>193.43100000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>196.39099999999999</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G4">
-        <v>1623.3150000000001</v>
+        <v>123.07491</v>
       </c>
       <c r="H4">
-        <v>2256.9859999999999</v>
+        <v>130.15239</v>
       </c>
       <c r="I4">
-        <v>58.27</v>
+        <v>3.1511999999999998</v>
       </c>
       <c r="J4">
-        <v>757.274</v>
+        <v>0.74309000000000003</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>284.45499999999998</v>
+        <v>3.42936</v>
       </c>
       <c r="O4">
-        <v>1088.682</v>
+        <v>13.04745</v>
       </c>
       <c r="P4">
-        <v>797.923</v>
+        <v>1.02125</v>
       </c>
       <c r="Q4">
-        <v>-149.25700000000001</v>
+        <v>-102.176</v>
       </c>
       <c r="R4">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1168.3040000000001</v>
+        <v>117.10495</v>
       </c>
       <c r="U4">
-        <v>261.084</v>
+        <v>11.42346</v>
       </c>
       <c r="V4">
-        <v>71.22</v>
+        <v>-0.98</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>51.517000000000003</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-255.07300000000001</v>
+        <v>-96.826999999999998</v>
       </c>
       <c r="AA4">
-        <v>30.62</v>
+        <v>-5.8929999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>20.151</v>
+        <v>-5.7850000000000001</v>
       </c>
       <c r="D5">
-        <v>235.499</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="E5">
-        <v>169.05199999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>160.15</v>
+        <v>0.49</v>
       </c>
       <c r="G5">
-        <v>1504.2139999999999</v>
+        <v>105.00902000000001</v>
       </c>
       <c r="H5">
-        <v>2147.0590000000002</v>
+        <v>127.54489</v>
       </c>
       <c r="I5">
-        <v>52.249000000000002</v>
+        <v>2.9195600000000002</v>
       </c>
       <c r="J5">
-        <v>765.077</v>
+        <v>0.66778999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>297.21300000000002</v>
+        <v>3.2067899999999998</v>
       </c>
       <c r="O5">
-        <v>1111.519</v>
+        <v>13.93708</v>
       </c>
       <c r="P5">
-        <v>798.87</v>
+        <v>0.95501999999999998</v>
       </c>
       <c r="Q5">
-        <v>-31.238</v>
+        <v>-7.681</v>
       </c>
       <c r="R5">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1035.54</v>
+        <v>113.60781</v>
       </c>
       <c r="U5">
-        <v>229.846</v>
+        <v>3.74336</v>
       </c>
       <c r="V5">
-        <v>90.042000000000002</v>
+        <v>-4.657</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-187.83</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>89.281999999999996</v>
+        <v>2.1030000000000002</v>
       </c>
       <c r="AA5">
-        <v>20.151</v>
+        <v>-5.7850000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>11.72</v>
+        <v>-8.2270000000000003</v>
       </c>
       <c r="D6">
-        <v>250.071</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E6">
-        <v>171.22900000000001</v>
+        <v>0.36</v>
       </c>
       <c r="F6">
-        <v>173.62200000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="G6">
-        <v>1544.6189999999999</v>
+        <v>96.26</v>
       </c>
       <c r="H6">
-        <v>2195.84</v>
+        <v>122.465</v>
       </c>
       <c r="I6">
-        <v>49.805999999999997</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="J6">
-        <v>807.36900000000003</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>226.92099999999999</v>
+        <v>4.8079999999999998</v>
       </c>
       <c r="O6">
-        <v>1120.625</v>
+        <v>15.673999999999999</v>
       </c>
       <c r="P6">
-        <v>807.36900000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="Q6">
-        <v>73.132000000000005</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="R6">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="S6">
-        <v>2200</v>
+        <v>179</v>
       </c>
       <c r="T6">
-        <v>1075.2149999999999</v>
+        <v>106.791</v>
       </c>
       <c r="U6">
-        <v>302.97800000000001</v>
+        <v>4.165</v>
       </c>
       <c r="V6">
-        <v>108.3</v>
+        <v>-2.9990000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>7.8479999999999999</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="Z6">
-        <v>-15.196</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="AA6">
-        <v>11.72</v>
+        <v>-8.2270000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>26.202000000000002</v>
+        <v>-8.6669999999999998</v>
       </c>
       <c r="D7">
-        <v>272.77</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="E7">
-        <v>202.23400000000001</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="F7">
-        <v>184.054</v>
+        <v>0.93</v>
       </c>
       <c r="G7">
-        <v>1637.2909999999999</v>
+        <v>90.647000000000006</v>
       </c>
       <c r="H7">
-        <v>2301.4740000000002</v>
+        <v>140.55199999999999</v>
       </c>
       <c r="I7">
-        <v>59.860999999999997</v>
+        <v>4.2640000000000002</v>
       </c>
       <c r="J7">
-        <v>780.94299999999998</v>
+        <v>25.619</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="N7">
-        <v>292.92599999999999</v>
+        <v>4.8890000000000002</v>
       </c>
       <c r="O7">
-        <v>1141.3019999999999</v>
+        <v>41.420999999999999</v>
       </c>
       <c r="P7">
-        <v>815.96799999999996</v>
+        <v>26.244</v>
       </c>
       <c r="Q7">
-        <v>-42.783999999999999</v>
+        <v>6.2519999999999998</v>
       </c>
       <c r="R7">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1160.172</v>
+        <v>99.131</v>
       </c>
       <c r="U7">
-        <v>260.19400000000002</v>
+        <v>10.417</v>
       </c>
       <c r="V7">
-        <v>65.44</v>
+        <v>-6.5990000000000002</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>33.616</v>
+        <v>26.254000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-128.786</v>
+        <v>11.401</v>
       </c>
       <c r="AA7">
-        <v>26.202000000000002</v>
+        <v>-8.6669999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>23.401</v>
+        <v>-16.446999999999999</v>
       </c>
       <c r="D8">
-        <v>280.60700000000003</v>
+        <v>1.9</v>
       </c>
       <c r="E8">
-        <v>188.56200000000001</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="F8">
-        <v>196.04</v>
+        <v>1.304</v>
       </c>
       <c r="G8">
-        <v>1664.3720000000001</v>
+        <v>83.619</v>
       </c>
       <c r="H8">
-        <v>2348.7379999999998</v>
+        <v>133.614</v>
       </c>
       <c r="I8">
-        <v>56.667999999999999</v>
+        <v>4.3440000000000003</v>
       </c>
       <c r="J8">
-        <v>789.00800000000004</v>
+        <v>25.533000000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>299.14100000000002</v>
+        <v>12.686</v>
       </c>
       <c r="O8">
-        <v>1167.9549999999999</v>
+        <v>48.924999999999997</v>
       </c>
       <c r="P8">
-        <v>824.66800000000001</v>
+        <v>26.175000000000001</v>
       </c>
       <c r="Q8">
-        <v>56.218000000000004</v>
+        <v>-9.7119999999999997</v>
       </c>
       <c r="R8">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1180.7829999999999</v>
+        <v>84.688999999999993</v>
       </c>
       <c r="U8">
-        <v>316.41199999999998</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="V8">
-        <v>96.328999999999994</v>
+        <v>-7.04</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-30.263999999999999</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>11.298</v>
+        <v>-1.2430000000000001</v>
       </c>
       <c r="AA8">
-        <v>23.401</v>
+        <v>-16.446999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>29.748000000000001</v>
+        <v>-7.601</v>
       </c>
       <c r="D9">
-        <v>285.87400000000002</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="E9">
-        <v>218.14500000000001</v>
+        <v>3.048</v>
       </c>
       <c r="F9">
-        <v>199.46100000000001</v>
+        <v>2.02</v>
       </c>
       <c r="G9">
-        <v>1646.2360000000001</v>
+        <v>78.899000000000001</v>
       </c>
       <c r="H9">
-        <v>2437.9830000000002</v>
+        <v>128.465</v>
       </c>
       <c r="I9">
-        <v>74.971000000000004</v>
+        <v>5.2030000000000003</v>
       </c>
       <c r="J9">
-        <v>797.16200000000003</v>
+        <v>25.451000000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>303.09899999999999</v>
+        <v>13.723000000000001</v>
       </c>
       <c r="O9">
-        <v>1215.769</v>
+        <v>49.77</v>
       </c>
       <c r="P9">
-        <v>833.46900000000005</v>
+        <v>26.111000000000001</v>
       </c>
       <c r="Q9">
-        <v>26.677</v>
+        <v>0.48</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1222.2139999999999</v>
+        <v>78.694999999999993</v>
       </c>
       <c r="U9">
-        <v>343.089</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="V9">
-        <v>51.228000000000002</v>
+        <v>-5.4390000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-8.0649999999999995</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>95.03</v>
+        <v>6.5069999999999997</v>
       </c>
       <c r="AA9">
-        <v>29.748000000000001</v>
+        <v>-7.6020000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>71.903000000000006</v>
+        <v>-7.6159999999999997</v>
       </c>
       <c r="D10">
-        <v>309.26499999999999</v>
+        <v>3.8860000000000001</v>
       </c>
       <c r="E10">
-        <v>213.089</v>
+        <v>2.931</v>
       </c>
       <c r="F10">
-        <v>208.126</v>
+        <v>2.25</v>
       </c>
       <c r="G10">
-        <v>1787.048</v>
+        <v>72.819000000000003</v>
       </c>
       <c r="H10">
-        <v>2566.085</v>
+        <v>121.90600000000001</v>
       </c>
       <c r="I10">
-        <v>65.727000000000004</v>
+        <v>1.77</v>
       </c>
       <c r="J10">
-        <v>805.40599999999995</v>
+        <v>25.62</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>304.57100000000003</v>
+        <v>14.297000000000001</v>
       </c>
       <c r="O10">
-        <v>1247.5039999999999</v>
+        <v>50.161999999999999</v>
       </c>
       <c r="P10">
-        <v>842.37300000000005</v>
+        <v>26.297000000000001</v>
       </c>
       <c r="Q10">
-        <v>90.891999999999996</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="R10">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="S10">
-        <v>2400</v>
+        <v>233</v>
       </c>
       <c r="T10">
-        <v>1318.5809999999999</v>
+        <v>71.744</v>
       </c>
       <c r="U10">
-        <v>433.98099999999999</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="V10">
-        <v>78.876000000000005</v>
+        <v>-6.5149999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-6.0419999999999998</v>
+        <v>-0.152</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>36.610999999999997</v>
+        <v>8.3179999999999996</v>
       </c>
       <c r="AA10">
-        <v>71.903000000000006</v>
+        <v>-7.6159999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-22.587</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="D11">
-        <v>330.95800000000003</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="E11">
-        <v>210.83099999999999</v>
+        <v>2.89</v>
       </c>
       <c r="F11">
-        <v>226.88900000000001</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="G11">
-        <v>1550.7729999999999</v>
+        <v>66.17</v>
       </c>
       <c r="H11">
-        <v>2744.1880000000001</v>
+        <v>115.21899999999999</v>
       </c>
       <c r="I11">
-        <v>76.626999999999995</v>
+        <v>6.7229999999999999</v>
       </c>
       <c r="J11">
-        <v>813.74099999999999</v>
+        <v>25.273</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.17</v>
       </c>
       <c r="N11">
-        <v>409.94099999999997</v>
+        <v>15.656000000000001</v>
       </c>
       <c r="O11">
-        <v>1432.3610000000001</v>
+        <v>51.332999999999998</v>
       </c>
       <c r="P11">
-        <v>851.38199999999995</v>
+        <v>25.965</v>
       </c>
       <c r="Q11">
-        <v>9.1010000000000009</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1311.827</v>
+        <v>63.886000000000003</v>
       </c>
       <c r="U11">
-        <v>443.08199999999999</v>
+        <v>4.8789999999999996</v>
       </c>
       <c r="V11">
-        <v>87.84</v>
+        <v>-4.9770000000000003</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-13.006</v>
+        <v>0.22</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>302.03199999999998</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="AA11">
-        <v>-22.587</v>
+        <v>-8.9600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>35.877000000000002</v>
+        <v>-8.5920000000000005</v>
       </c>
       <c r="D12">
-        <v>346.09399999999999</v>
+        <v>4.7690000000000001</v>
       </c>
       <c r="E12">
-        <v>207.41300000000001</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="F12">
-        <v>231.99299999999999</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="G12">
-        <v>1646.3910000000001</v>
+        <v>58.319000000000003</v>
       </c>
       <c r="H12">
-        <v>2823.2020000000002</v>
+        <v>106.53700000000001</v>
       </c>
       <c r="I12">
-        <v>67.647999999999996</v>
+        <v>6.16</v>
       </c>
       <c r="J12">
-        <v>822.16899999999998</v>
+        <v>25.18</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>418.88</v>
+        <v>15.218</v>
       </c>
       <c r="O12">
-        <v>1434.61</v>
+        <v>50.634999999999998</v>
       </c>
       <c r="P12">
-        <v>851.9</v>
+        <v>25.957999999999998</v>
       </c>
       <c r="Q12">
-        <v>340.529</v>
+        <v>1.587</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1388.5920000000001</v>
+        <v>55.902000000000001</v>
       </c>
       <c r="U12">
-        <v>783.61099999999999</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="V12">
-        <v>88.605999999999995</v>
+        <v>-7.1550000000000002</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>5.7839999999999998</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>261.40300000000002</v>
+        <v>9.2430000000000003</v>
       </c>
       <c r="AA12">
-        <v>35.877000000000002</v>
+        <v>-8.5920000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>31.356999999999999</v>
+        <v>-5.5110000000000001</v>
       </c>
       <c r="D13">
-        <v>356.8</v>
+        <v>8.2490000000000006</v>
       </c>
       <c r="E13">
-        <v>235.43700000000001</v>
+        <v>3.8250000000000002</v>
       </c>
       <c r="F13">
-        <v>244.417</v>
+        <v>5.5679999999999996</v>
       </c>
       <c r="G13">
-        <v>1537.646</v>
+        <v>58.512999999999998</v>
       </c>
       <c r="H13">
-        <v>2817.6959999999999</v>
+        <v>106.276</v>
       </c>
       <c r="I13">
-        <v>63.125999999999998</v>
+        <v>10.959</v>
       </c>
       <c r="J13">
-        <v>830.69</v>
+        <v>25.09</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>418.92500000000001</v>
+        <v>20.126999999999999</v>
       </c>
       <c r="O13">
-        <v>1443.232</v>
+        <v>55.216999999999999</v>
       </c>
       <c r="P13">
-        <v>859.5</v>
+        <v>25.789000000000001</v>
       </c>
       <c r="Q13">
-        <v>-91.775000000000006</v>
+        <v>3.5230000000000001</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1374.4639999999999</v>
+        <v>51.058999999999997</v>
       </c>
       <c r="U13">
-        <v>691.83600000000001</v>
+        <v>9.9890000000000008</v>
       </c>
       <c r="V13">
-        <v>83.135999999999996</v>
+        <v>-0.66400000000000003</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-75.052999999999997</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>9.9540000000000006</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="AA13">
-        <v>31.356999999999999</v>
+        <v>-5.5110000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>80.661000000000001</v>
+        <v>-4</v>
       </c>
       <c r="D14">
-        <v>387.32600000000002</v>
+        <v>10.741</v>
       </c>
       <c r="E14">
-        <v>237.68</v>
+        <v>4.21</v>
       </c>
       <c r="F14">
-        <v>256.05200000000002</v>
+        <v>7.3209999999999997</v>
       </c>
       <c r="G14">
-        <v>1617.5350000000001</v>
+        <v>40.417999999999999</v>
       </c>
       <c r="H14">
-        <v>3019.0059999999999</v>
+        <v>99.233999999999995</v>
       </c>
       <c r="I14">
-        <v>73.655000000000001</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J14">
-        <v>839.30499999999995</v>
+        <v>24.998999999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>322.06299999999999</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="O14">
-        <v>1485.8040000000001</v>
+        <v>51.845999999999997</v>
       </c>
       <c r="P14">
-        <v>868.59299999999996</v>
+        <v>25.617999999999999</v>
       </c>
       <c r="Q14">
-        <v>19.800999999999998</v>
+        <v>2.476</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="S14">
-        <v>3000</v>
+        <v>236</v>
       </c>
       <c r="T14">
-        <v>1533.202</v>
+        <v>47.387999999999998</v>
       </c>
       <c r="U14">
-        <v>711.63699999999994</v>
+        <v>12.465</v>
       </c>
       <c r="V14">
-        <v>126.839</v>
+        <v>-5.46</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>43.555999999999997</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-28.978000000000002</v>
+        <v>8.2919999999999998</v>
       </c>
       <c r="AA14">
-        <v>80.661000000000001</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>59.976999999999997</v>
+        <v>-3.931</v>
       </c>
       <c r="D15">
-        <v>420.78100000000001</v>
+        <v>10.803000000000001</v>
       </c>
       <c r="E15">
-        <v>293.04500000000002</v>
+        <v>8.8770000000000007</v>
       </c>
       <c r="F15">
-        <v>287.827</v>
+        <v>8.0009999999999994</v>
       </c>
       <c r="G15">
-        <v>1631.943</v>
+        <v>39.662999999999997</v>
       </c>
       <c r="H15">
-        <v>3053.57</v>
+        <v>98.222999999999999</v>
       </c>
       <c r="I15">
-        <v>86.471000000000004</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>24.893000000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-29.654</v>
+        <v>-0.183</v>
       </c>
       <c r="N15">
-        <v>1149.779</v>
+        <v>9.7650000000000006</v>
       </c>
       <c r="O15">
-        <v>1479.9570000000001</v>
+        <v>53.505000000000003</v>
       </c>
       <c r="P15">
-        <v>848.01599999999996</v>
+        <v>25.434999999999999</v>
       </c>
       <c r="Q15">
-        <v>-193.124</v>
+        <v>-3.7250000000000001</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1573.6130000000001</v>
+        <v>44.718000000000004</v>
       </c>
       <c r="U15">
-        <v>518.51300000000003</v>
+        <v>8.74</v>
       </c>
       <c r="V15">
-        <v>37.087000000000003</v>
+        <v>-4.71</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-85.924000000000007</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-124.75</v>
+        <v>1.258</v>
       </c>
       <c r="AA15">
-        <v>59.976999999999997</v>
+        <v>-3.931</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>46.604999999999997</v>
+        <v>-3.516</v>
       </c>
       <c r="D16">
-        <v>447.56799999999998</v>
+        <v>11.486000000000001</v>
       </c>
       <c r="E16">
-        <v>258.69400000000002</v>
+        <v>9.9329999999999998</v>
       </c>
       <c r="F16">
-        <v>310.08499999999998</v>
+        <v>8.4190000000000005</v>
       </c>
       <c r="G16">
-        <v>1620.721</v>
+        <v>79.268000000000001</v>
       </c>
       <c r="H16">
-        <v>3035.0549999999998</v>
+        <v>125.301</v>
       </c>
       <c r="I16">
-        <v>91.513000000000005</v>
+        <v>11.119</v>
       </c>
       <c r="J16">
-        <v>972.94500000000005</v>
+        <v>24.792000000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>649.20699999999999</v>
+        <v>20.542999999999999</v>
       </c>
       <c r="O16">
-        <v>1954.6189999999999</v>
+        <v>55.6</v>
       </c>
       <c r="P16">
-        <v>1270.963</v>
+        <v>25.18</v>
       </c>
       <c r="Q16">
-        <v>156.708</v>
+        <v>45.27</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1080.4359999999999</v>
+        <v>69.700999999999993</v>
       </c>
       <c r="U16">
-        <v>675.221</v>
+        <v>54.01</v>
       </c>
       <c r="V16">
-        <v>178.03</v>
+        <v>-1.1479999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-136.52099999999999</v>
+        <v>28.548999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>138.101</v>
+        <v>18.486999999999998</v>
       </c>
       <c r="AA16">
-        <v>46.604999999999997</v>
+        <v>-3.516</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38263</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>93.489000000000004</v>
+        <v>-2.0249999999999999</v>
       </c>
       <c r="D17">
-        <v>480.63</v>
+        <v>13.512</v>
       </c>
       <c r="E17">
-        <v>276.67500000000001</v>
+        <v>9.4860000000000007</v>
       </c>
       <c r="F17">
-        <v>343.61799999999999</v>
+        <v>9.9949999999999992</v>
       </c>
       <c r="G17">
-        <v>1906.954</v>
+        <v>81.52</v>
       </c>
       <c r="H17">
-        <v>3278.2060000000001</v>
+        <v>92.072000000000003</v>
       </c>
       <c r="I17">
-        <v>96.069000000000003</v>
+        <v>10.615</v>
       </c>
       <c r="J17">
-        <v>979.83600000000001</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>856.40099999999995</v>
+        <v>19.84</v>
       </c>
       <c r="O17">
-        <v>2003.893</v>
+        <v>23.343</v>
       </c>
       <c r="P17">
-        <v>1280.9549999999999</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>154.67400000000001</v>
+        <v>0.312</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38263</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1274.3130000000001</v>
+        <v>68.728999999999999</v>
       </c>
       <c r="U17">
-        <v>829.89499999999998</v>
+        <v>54.322000000000003</v>
       </c>
       <c r="V17">
-        <v>145.60499999999999</v>
+        <v>-15.576000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>55.494999999999997</v>
+        <v>-24.286000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-6.0229999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>93.489000000000004</v>
+        <v>-2.0259999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>153.28</v>
+        <v>3.2469999999999999</v>
       </c>
       <c r="D18">
-        <v>512.37900000000002</v>
+        <v>14.782999999999999</v>
       </c>
       <c r="E18">
-        <v>287.38799999999998</v>
+        <v>11.5</v>
       </c>
       <c r="F18">
-        <v>395.553</v>
+        <v>10.909000000000001</v>
       </c>
       <c r="G18">
-        <v>1889.6030000000001</v>
+        <v>83.691000000000003</v>
       </c>
       <c r="H18">
-        <v>3339.64</v>
+        <v>94.906999999999996</v>
       </c>
       <c r="I18">
-        <v>82.626000000000005</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="J18">
-        <v>986.78</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>722.15800000000002</v>
+        <v>19.047999999999998</v>
       </c>
       <c r="O18">
-        <v>1876.8420000000001</v>
+        <v>22.645</v>
       </c>
       <c r="P18">
-        <v>1291.0360000000001</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-193.74100000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="S18">
-        <v>3700</v>
+        <v>278</v>
       </c>
       <c r="T18">
-        <v>1462.798</v>
+        <v>72.262</v>
       </c>
       <c r="U18">
-        <v>636.154</v>
+        <v>54.789000000000001</v>
       </c>
       <c r="V18">
-        <v>140.54900000000001</v>
+        <v>1.86</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0.20200000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-268.45100000000002</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>153.28</v>
+        <v>3.2469999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>136.65799999999999</v>
+        <v>-1.2350000000000001</v>
       </c>
       <c r="D19">
-        <v>538.56500000000005</v>
+        <v>15.148</v>
       </c>
       <c r="E19">
-        <v>350.04399999999998</v>
+        <v>11.755000000000001</v>
       </c>
       <c r="F19">
-        <v>386.41199999999998</v>
+        <v>10.548999999999999</v>
       </c>
       <c r="G19">
-        <v>2060.2809999999999</v>
+        <v>80.412999999999997</v>
       </c>
       <c r="H19">
-        <v>3499.0929999999998</v>
+        <v>93.78</v>
       </c>
       <c r="I19">
-        <v>106.67400000000001</v>
+        <v>15.585000000000001</v>
       </c>
       <c r="J19">
-        <v>993.77700000000004</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.114</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>710.25099999999998</v>
+        <v>15.585000000000001</v>
       </c>
       <c r="O19">
-        <v>1875.7670000000001</v>
+        <v>21.358000000000001</v>
       </c>
       <c r="P19">
-        <v>1301.204</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-102.617</v>
+        <v>-1.8360000000000001</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1623.326</v>
+        <v>72.421999999999997</v>
       </c>
       <c r="U19">
-        <v>533.53700000000003</v>
+        <v>52.953000000000003</v>
       </c>
       <c r="V19">
-        <v>66.778999999999996</v>
+        <v>-3.3250000000000002</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-12.534000000000001</v>
+        <v>1.284</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-117.596</v>
+        <v>3.133</v>
       </c>
       <c r="AA19">
-        <v>136.65799999999999</v>
+        <v>-1.2350000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>102.247</v>
+        <v>-18.539000000000001</v>
       </c>
       <c r="D20">
-        <v>539.37800000000004</v>
+        <v>15.824</v>
       </c>
       <c r="E20">
-        <v>368.61099999999999</v>
+        <v>12.192</v>
       </c>
       <c r="F20">
-        <v>387.74900000000002</v>
+        <v>11.09</v>
       </c>
       <c r="G20">
-        <v>2237.6909999999998</v>
+        <v>72.938000000000002</v>
       </c>
       <c r="H20">
-        <v>3703.125</v>
+        <v>91.259</v>
       </c>
       <c r="I20">
-        <v>107.884</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="J20">
-        <v>1000.829</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>725.053</v>
+        <v>15.067</v>
       </c>
       <c r="O20">
-        <v>1909.213</v>
+        <v>20.97</v>
       </c>
       <c r="P20">
-        <v>1303.2760000000001</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>57.52</v>
+        <v>1.613</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1793.912</v>
+        <v>70.289000000000001</v>
       </c>
       <c r="U20">
-        <v>591.05700000000002</v>
+        <v>54.566000000000003</v>
       </c>
       <c r="V20">
-        <v>171.44499999999999</v>
+        <v>-3.8690000000000002</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>27.81</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-100.84399999999999</v>
+        <v>9.1150000000000002</v>
       </c>
       <c r="AA20">
-        <v>102.247</v>
+        <v>-18.539000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42274</v>
+        <v>38627</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>118.17700000000001</v>
+        <v>-1.4259999999999999</v>
       </c>
       <c r="D21">
-        <v>550.27099999999996</v>
+        <v>19.515999999999998</v>
       </c>
       <c r="E21">
-        <v>413.47399999999999</v>
+        <v>17.606999999999999</v>
       </c>
       <c r="F21">
-        <v>399.72699999999998</v>
+        <v>12.917</v>
       </c>
       <c r="G21">
-        <v>2210.4279999999999</v>
+        <v>76.322999999999993</v>
       </c>
       <c r="H21">
-        <v>3733.5479999999998</v>
+        <v>97.025999999999996</v>
       </c>
       <c r="I21">
-        <v>123.432</v>
+        <v>10.209</v>
       </c>
       <c r="J21">
-        <v>1007.9349999999999</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>583.85699999999997</v>
+        <v>19.742000000000001</v>
       </c>
       <c r="O21">
-        <v>1764.8530000000001</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="P21">
-        <v>1110.1010000000001</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-39.527999999999999</v>
+        <v>-4.3940000000000001</v>
       </c>
       <c r="R21">
-        <v>42274</v>
+        <v>38627</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1968.6949999999999</v>
+        <v>71.103999999999999</v>
       </c>
       <c r="U21">
-        <v>551.529</v>
+        <v>50.171999999999997</v>
       </c>
       <c r="V21">
-        <v>180.994</v>
+        <v>-3.8940000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-180.89699999999999</v>
+        <v>2.09</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>25.757999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>118.17700000000001</v>
+        <v>-1.4259999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42372</v>
+        <v>38718</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>104.477</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D22">
-        <v>591.548</v>
+        <v>23.013000000000002</v>
       </c>
       <c r="E22">
-        <v>384.89299999999997</v>
+        <v>16.742000000000001</v>
       </c>
       <c r="F22">
-        <v>421.21199999999999</v>
+        <v>15.763999999999999</v>
       </c>
       <c r="G22">
-        <v>2096.8229999999999</v>
+        <v>79.709999999999994</v>
       </c>
       <c r="H22">
-        <v>3687.7469999999998</v>
+        <v>100.61</v>
       </c>
       <c r="I22">
-        <v>139.226</v>
+        <v>7.39</v>
       </c>
       <c r="J22">
-        <v>1015.649</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>610.49400000000003</v>
+        <v>21.718</v>
       </c>
       <c r="O22">
-        <v>1806.6479999999999</v>
+        <v>28.113</v>
       </c>
       <c r="P22">
-        <v>1090.578</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="Q22">
-        <v>217.24100000000001</v>
+        <v>0.65</v>
       </c>
       <c r="R22">
-        <v>42372</v>
+        <v>38718</v>
       </c>
       <c r="S22">
-        <v>4600</v>
+        <v>375</v>
       </c>
       <c r="T22">
-        <v>1881.0989999999999</v>
+        <v>72.497</v>
       </c>
       <c r="U22">
-        <v>768.77</v>
+        <v>50.822000000000003</v>
       </c>
       <c r="V22">
-        <v>240.37799999999999</v>
+        <v>2.08</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-253.14099999999999</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>266.36399999999998</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>104.477</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>90</v>
+        <v>-0.104</v>
       </c>
       <c r="D23">
-        <v>572</v>
+        <v>29.102</v>
       </c>
       <c r="E23">
-        <v>402.51400000000001</v>
+        <v>21.427</v>
       </c>
       <c r="F23">
-        <v>408</v>
+        <v>19.809000000000001</v>
       </c>
       <c r="G23">
-        <v>2073.7979999999998</v>
+        <v>84.588999999999999</v>
       </c>
       <c r="H23">
-        <v>3793.7060000000001</v>
+        <v>112.526</v>
       </c>
       <c r="I23">
-        <v>154.68</v>
+        <v>12.656000000000001</v>
       </c>
       <c r="J23">
-        <v>1022.646</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-76</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="N23">
-        <v>481.22800000000001</v>
+        <v>24.696999999999999</v>
       </c>
       <c r="O23">
-        <v>1689.4</v>
+        <v>33.804000000000002</v>
       </c>
       <c r="P23">
-        <v>1022.646</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q23">
-        <v>-14</v>
+        <v>-1.778</v>
       </c>
       <c r="R23">
-        <v>42463</v>
+        <v>38809</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2104.306</v>
+        <v>78.721999999999994</v>
       </c>
       <c r="U23">
-        <v>754.91</v>
+        <v>49.043999999999997</v>
       </c>
       <c r="V23">
-        <v>99</v>
+        <v>2.36</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-71</v>
+        <v>3.1019999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>27</v>
+        <v>-3.036</v>
       </c>
       <c r="AA23">
-        <v>90</v>
+        <v>-0.104</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>6.7679999999999998</v>
       </c>
       <c r="D24">
-        <v>600</v>
+        <v>41.576999999999998</v>
       </c>
       <c r="E24">
-        <v>372.48</v>
+        <v>23.1</v>
       </c>
       <c r="F24">
-        <v>434</v>
+        <v>28.001000000000001</v>
       </c>
       <c r="G24">
-        <v>2143.0210000000002</v>
+        <v>199.33799999999999</v>
       </c>
       <c r="H24">
-        <v>3985.09</v>
+        <v>230.95099999999999</v>
       </c>
       <c r="I24">
-        <v>250.67</v>
+        <v>15.621</v>
       </c>
       <c r="J24">
-        <v>1031.3699999999999</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>581.50699999999995</v>
+        <v>34.871000000000002</v>
       </c>
       <c r="O24">
-        <v>1811.4449999999999</v>
+        <v>44.283000000000001</v>
       </c>
       <c r="P24">
-        <v>1031.8810000000001</v>
+        <v>0.114</v>
       </c>
       <c r="Q24">
-        <v>197</v>
+        <v>103.206</v>
       </c>
       <c r="R24">
-        <v>42554</v>
+        <v>38900</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2173.645</v>
+        <v>186.66800000000001</v>
       </c>
       <c r="U24">
-        <v>951.66200000000003</v>
+        <v>152.25</v>
       </c>
       <c r="V24">
-        <v>242</v>
+        <v>14.903</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-89</v>
+        <v>97.927999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>112</v>
+        <v>-4.5289999999999999</v>
       </c>
       <c r="AA24">
-        <v>120</v>
+        <v>6.7679999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>129</v>
+        <v>16.161999999999999</v>
       </c>
       <c r="D25">
-        <v>607</v>
+        <v>53.472000000000001</v>
       </c>
       <c r="E25">
-        <v>381.63200000000001</v>
+        <v>29.045000000000002</v>
       </c>
       <c r="F25">
-        <v>437</v>
+        <v>37.116</v>
       </c>
       <c r="G25">
-        <v>2277.8359999999998</v>
+        <v>220.90299999999999</v>
       </c>
       <c r="H25">
-        <v>4227.8270000000002</v>
+        <v>256.47699999999998</v>
       </c>
       <c r="I25">
-        <v>134.09</v>
+        <v>14.077</v>
       </c>
       <c r="J25">
-        <v>1040.7650000000001</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>628.85500000000002</v>
+        <v>33.456000000000003</v>
       </c>
       <c r="O25">
-        <v>1873.893</v>
+        <v>45.402999999999999</v>
       </c>
       <c r="P25">
-        <v>1042.0150000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q25">
-        <v>-157</v>
+        <v>-108.084</v>
       </c>
       <c r="R25">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2353.9340000000002</v>
+        <v>211.07400000000001</v>
       </c>
       <c r="U25">
-        <v>794.697</v>
+        <v>44.165999999999997</v>
       </c>
       <c r="V25">
-        <v>176</v>
+        <v>12.956</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>9</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-273</v>
+        <v>-121.309</v>
       </c>
       <c r="AA25">
-        <v>129</v>
+        <v>16.161999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>124</v>
+        <v>17.141999999999999</v>
       </c>
       <c r="D26">
-        <v>619</v>
+        <v>60.435000000000002</v>
       </c>
       <c r="E26">
-        <v>381</v>
+        <v>39.401000000000003</v>
       </c>
       <c r="F26">
-        <v>430</v>
+        <v>40.316000000000003</v>
       </c>
       <c r="G26">
-        <v>2318</v>
+        <v>193.726</v>
       </c>
       <c r="H26">
-        <v>4281</v>
+        <v>300.584</v>
       </c>
       <c r="I26">
-        <v>138</v>
+        <v>9.8529999999999998</v>
       </c>
       <c r="J26">
-        <v>1056</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>705</v>
+        <v>33.776000000000003</v>
       </c>
       <c r="O26">
-        <v>1967</v>
+        <v>53.241999999999997</v>
       </c>
       <c r="P26">
-        <v>1058</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Q26">
-        <v>-60</v>
+        <v>-5.78</v>
       </c>
       <c r="R26">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5500</v>
+        <v>596</v>
       </c>
       <c r="T26">
-        <v>2314</v>
+        <v>247.34200000000001</v>
       </c>
       <c r="U26">
-        <v>735</v>
+        <v>38.386000000000003</v>
       </c>
       <c r="V26">
-        <v>262</v>
+        <v>8.7810000000000006</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-145</v>
+        <v>3.7879999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-92</v>
+        <v>33.353000000000002</v>
       </c>
       <c r="AA26">
-        <v>124</v>
+        <v>17.141999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>367</v>
+        <v>-298.07600000000002</v>
       </c>
       <c r="D27">
-        <v>598</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="E27">
-        <v>368</v>
+        <v>53.127000000000002</v>
       </c>
       <c r="F27">
-        <v>397</v>
+        <v>47.03</v>
       </c>
       <c r="G27">
-        <v>2517</v>
+        <v>424.536</v>
       </c>
       <c r="H27">
-        <v>4598</v>
+        <v>742.83699999999999</v>
       </c>
       <c r="I27">
-        <v>142</v>
+        <v>21.907</v>
       </c>
       <c r="J27">
-        <v>1055</v>
+        <v>400.00599999999997</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="N27">
-        <v>721</v>
+        <v>66.727999999999994</v>
       </c>
       <c r="O27">
-        <v>1988</v>
+        <v>476.87700000000001</v>
       </c>
       <c r="P27">
-        <v>1056</v>
+        <v>400.07299999999998</v>
       </c>
       <c r="Q27">
-        <v>246</v>
+        <v>85.143000000000001</v>
       </c>
       <c r="R27">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2610</v>
+        <v>265.95999999999998</v>
       </c>
       <c r="U27">
-        <v>981</v>
+        <v>123.529</v>
       </c>
       <c r="V27">
-        <v>168</v>
+        <v>14.643000000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-86</v>
+        <v>104.95</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>-107.916</v>
       </c>
       <c r="AA27">
-        <v>367</v>
+        <v>-298.07600000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>128</v>
+        <v>9.2639999999999993</v>
       </c>
       <c r="D28">
-        <v>662</v>
+        <v>84.534999999999997</v>
       </c>
       <c r="E28">
-        <v>372</v>
+        <v>57.441000000000003</v>
       </c>
       <c r="F28">
-        <v>444</v>
+        <v>54.393999999999998</v>
       </c>
       <c r="G28">
-        <v>2643</v>
+        <v>452.18599999999998</v>
       </c>
       <c r="H28">
-        <v>4858</v>
+        <v>773.57399999999996</v>
       </c>
       <c r="I28">
-        <v>175</v>
+        <v>24.556000000000001</v>
       </c>
       <c r="J28">
-        <v>1169</v>
+        <v>400</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>682</v>
+        <v>76.606999999999999</v>
       </c>
       <c r="O28">
-        <v>2063</v>
+        <v>486.73899999999998</v>
       </c>
       <c r="P28">
-        <v>1174</v>
+        <v>400.04199999999997</v>
       </c>
       <c r="Q28">
-        <v>238</v>
+        <v>-42.411999999999999</v>
       </c>
       <c r="R28">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2795</v>
+        <v>286.83499999999998</v>
       </c>
       <c r="U28">
-        <v>1219</v>
+        <v>81.117000000000004</v>
       </c>
       <c r="V28">
-        <v>178</v>
+        <v>24.483000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>24</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>104</v>
+        <v>-58.655000000000001</v>
       </c>
       <c r="AA28">
-        <v>128</v>
+        <v>9.2639999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>163</v>
+        <v>14.500999999999999</v>
       </c>
       <c r="D29">
-        <v>714</v>
+        <v>97.51</v>
       </c>
       <c r="E29">
-        <v>383</v>
+        <v>79.885999999999996</v>
       </c>
       <c r="F29">
-        <v>491</v>
+        <v>60.432000000000002</v>
       </c>
       <c r="G29">
-        <v>2805</v>
+        <v>486.93099999999998</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>810.20899999999995</v>
       </c>
       <c r="I29">
-        <v>158</v>
+        <v>22.497</v>
       </c>
       <c r="J29">
-        <v>1180</v>
+        <v>400</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>665</v>
+        <v>79.021000000000001</v>
       </c>
       <c r="O29">
-        <v>2067</v>
+        <v>488.95100000000002</v>
       </c>
       <c r="P29">
-        <v>1182</v>
+        <v>400.02499999999998</v>
       </c>
       <c r="Q29">
-        <v>135</v>
+        <v>-17.010000000000002</v>
       </c>
       <c r="R29">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2979</v>
+        <v>321.25799999999998</v>
       </c>
       <c r="U29">
-        <v>1354</v>
+        <v>64.106999999999999</v>
       </c>
       <c r="V29">
-        <v>235</v>
+        <v>5.3150000000000004</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-5</v>
+        <v>10.433</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-13</v>
+        <v>-26.277999999999999</v>
       </c>
       <c r="AA29">
-        <v>163</v>
+        <v>14.503</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>-4.048</v>
       </c>
       <c r="D30">
-        <v>777</v>
+        <v>112.605</v>
       </c>
       <c r="E30">
-        <v>411</v>
+        <v>81.603999999999999</v>
       </c>
       <c r="F30">
-        <v>551</v>
+        <v>73.207999999999998</v>
       </c>
       <c r="G30">
-        <v>2980</v>
+        <v>562.755</v>
       </c>
       <c r="H30">
-        <v>5257</v>
+        <v>987.73199999999997</v>
       </c>
       <c r="I30">
-        <v>160</v>
+        <v>24.311</v>
       </c>
       <c r="J30">
-        <v>1069</v>
+        <v>400</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>746</v>
+        <v>165.715</v>
       </c>
       <c r="O30">
-        <v>2288</v>
+        <v>576.05399999999997</v>
       </c>
       <c r="P30">
-        <v>1192</v>
+        <v>400.01600000000002</v>
       </c>
       <c r="Q30">
-        <v>-129</v>
+        <v>110.834</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="S30">
-        <v>6200</v>
+        <v>1041</v>
       </c>
       <c r="T30">
-        <v>2969</v>
+        <v>411.678</v>
       </c>
       <c r="U30">
-        <v>1225</v>
+        <v>174.941</v>
       </c>
       <c r="V30">
-        <v>294</v>
+        <v>11.853</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-109</v>
+        <v>30.443999999999999</v>
       </c>
       <c r="Y30">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-239</v>
+        <v>77.474000000000004</v>
       </c>
       <c r="AA30">
-        <v>68</v>
+        <v>-4.048</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>208</v>
+        <v>10.743</v>
       </c>
       <c r="D31">
-        <v>782</v>
+        <v>121.861</v>
       </c>
       <c r="E31">
-        <v>400</v>
+        <v>91.412000000000006</v>
       </c>
       <c r="F31">
-        <v>546</v>
+        <v>75.78</v>
       </c>
       <c r="G31">
-        <v>3194</v>
+        <v>464.66199999999998</v>
       </c>
       <c r="H31">
-        <v>5542</v>
+        <v>935.75199999999995</v>
       </c>
       <c r="I31">
-        <v>151</v>
+        <v>30.651</v>
       </c>
       <c r="J31">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="N31">
-        <v>1180</v>
+        <v>469.524</v>
       </c>
       <c r="O31">
-        <v>2254</v>
+        <v>484.66300000000001</v>
       </c>
       <c r="P31">
-        <v>1330</v>
+        <v>400.00599999999997</v>
       </c>
       <c r="Q31">
-        <v>335</v>
+        <v>-56.326999999999998</v>
       </c>
       <c r="R31">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3288</v>
+        <v>451.089</v>
       </c>
       <c r="U31">
-        <v>1560</v>
+        <v>118.614</v>
       </c>
       <c r="V31">
-        <v>255</v>
+        <v>-26.754999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>67</v>
+        <v>15.978999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>102</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AA31">
-        <v>208</v>
+        <v>10.743</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>209</v>
+        <v>12.657999999999999</v>
       </c>
       <c r="D32">
-        <v>830</v>
+        <v>140.17699999999999</v>
       </c>
       <c r="E32">
-        <v>395</v>
+        <v>101.985</v>
       </c>
       <c r="F32">
-        <v>584</v>
+        <v>89.718000000000004</v>
       </c>
       <c r="G32">
-        <v>3337</v>
+        <v>506.65600000000001</v>
       </c>
       <c r="H32">
-        <v>5851</v>
+        <v>992.68499999999995</v>
       </c>
       <c r="I32">
-        <v>149</v>
+        <v>39.536999999999999</v>
       </c>
       <c r="J32">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1217</v>
+        <v>486.048</v>
       </c>
       <c r="O32">
-        <v>2283</v>
+        <v>500.93299999999999</v>
       </c>
       <c r="P32">
-        <v>1348</v>
+        <v>400</v>
       </c>
       <c r="Q32">
-        <v>-216</v>
+        <v>14.353999999999999</v>
       </c>
       <c r="R32">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3568</v>
+        <v>491.75200000000001</v>
       </c>
       <c r="U32">
-        <v>1344</v>
+        <v>132.96799999999999</v>
       </c>
       <c r="V32">
-        <v>295</v>
+        <v>37.222999999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>30</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-360</v>
+        <v>-14.523999999999999</v>
       </c>
       <c r="AA32">
-        <v>209</v>
+        <v>12.659000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>199</v>
+        <v>-10.077</v>
       </c>
       <c r="D33">
-        <v>853</v>
+        <v>150.26</v>
       </c>
       <c r="E33">
-        <v>433</v>
+        <v>124.161</v>
       </c>
       <c r="F33">
-        <v>607</v>
+        <v>95.83</v>
       </c>
       <c r="G33">
-        <v>4262</v>
+        <v>875.226</v>
       </c>
       <c r="H33">
-        <v>6759</v>
+        <v>1361.3219999999999</v>
       </c>
       <c r="I33">
-        <v>156</v>
+        <v>31.035</v>
       </c>
       <c r="J33">
-        <v>860</v>
+        <v>0.46</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1735</v>
+        <v>491.34699999999998</v>
       </c>
       <c r="O33">
-        <v>2947</v>
+        <v>508.32900000000001</v>
       </c>
       <c r="P33">
-        <v>1967</v>
+        <v>400.58699999999999</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>222.251</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3812</v>
+        <v>852.99300000000005</v>
       </c>
       <c r="U33">
-        <v>1346</v>
+        <v>355.21899999999999</v>
       </c>
       <c r="V33">
-        <v>292</v>
+        <v>27.297000000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>651</v>
+        <v>356.93599999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-876</v>
+        <v>-124.538</v>
       </c>
       <c r="AA33">
-        <v>199</v>
+        <v>-10.077999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>210</v>
+        <v>26.091999999999999</v>
       </c>
       <c r="D34">
-        <v>867</v>
+        <v>160.92699999999999</v>
       </c>
       <c r="E34">
-        <v>514</v>
+        <v>131.42599999999999</v>
       </c>
       <c r="F34">
-        <v>599</v>
+        <v>106.273</v>
       </c>
       <c r="G34">
-        <v>4490</v>
+        <v>869.56100000000004</v>
       </c>
       <c r="H34">
-        <v>6959</v>
+        <v>1327.171</v>
       </c>
       <c r="I34">
-        <v>184</v>
+        <v>29.204000000000001</v>
       </c>
       <c r="J34">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1804</v>
+        <v>386.44799999999998</v>
       </c>
       <c r="O34">
-        <v>3053</v>
+        <v>528.50400000000002</v>
       </c>
       <c r="P34">
-        <v>1997</v>
+        <v>276.88900000000001</v>
       </c>
       <c r="Q34">
-        <v>-202</v>
+        <v>-28.195</v>
       </c>
       <c r="R34">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="S34">
-        <v>7300</v>
+        <v>1536</v>
       </c>
       <c r="T34">
-        <v>3906</v>
+        <v>798.66700000000003</v>
       </c>
       <c r="U34">
-        <v>1144</v>
+        <v>327.024</v>
       </c>
       <c r="V34">
-        <v>300</v>
+        <v>50.116999999999997</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-154</v>
+        <v>-49.414000000000001</v>
       </c>
       <c r="Y34">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-283</v>
+        <v>-16.667999999999999</v>
       </c>
       <c r="AA34">
-        <v>210</v>
+        <v>26.091999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>233</v>
+        <v>18.811</v>
       </c>
       <c r="D35">
-        <v>846</v>
+        <v>165.75700000000001</v>
       </c>
       <c r="E35">
-        <v>457</v>
+        <v>134.62899999999999</v>
       </c>
       <c r="F35">
-        <v>593</v>
+        <v>111.735</v>
       </c>
       <c r="G35">
-        <v>4545</v>
+        <v>897.16700000000003</v>
       </c>
       <c r="H35">
-        <v>7390</v>
+        <v>1372.57</v>
       </c>
       <c r="I35">
-        <v>137</v>
+        <v>36.591000000000001</v>
       </c>
       <c r="J35">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="N35">
-        <v>1241</v>
+        <v>383.31200000000001</v>
       </c>
       <c r="O35">
-        <v>3283</v>
+        <v>517.43499999999995</v>
       </c>
       <c r="P35">
-        <v>2513</v>
+        <v>274.791</v>
       </c>
       <c r="Q35">
-        <v>1126</v>
+        <v>24.122</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4107</v>
+        <v>855.13499999999999</v>
       </c>
       <c r="U35">
-        <v>2270</v>
+        <v>351.14600000000002</v>
       </c>
       <c r="V35">
-        <v>198</v>
+        <v>50.747999999999998</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-60</v>
+        <v>7.8129999999999997</v>
       </c>
       <c r="Y35">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1029</v>
+        <v>-27.248999999999999</v>
       </c>
       <c r="AA35">
-        <v>233</v>
+        <v>18.811</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>296</v>
+        <v>24.687999999999999</v>
       </c>
       <c r="D36">
-        <v>838</v>
+        <v>161.643</v>
       </c>
       <c r="E36">
-        <v>470</v>
+        <v>154.251</v>
       </c>
       <c r="F36">
-        <v>583</v>
+        <v>112.828</v>
       </c>
       <c r="G36">
-        <v>4156</v>
+        <v>981.75900000000001</v>
       </c>
       <c r="H36">
-        <v>6973</v>
+        <v>1477.1679999999999</v>
       </c>
       <c r="I36">
-        <v>139</v>
+        <v>41.158000000000001</v>
       </c>
       <c r="J36">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>612</v>
+        <v>405.29700000000003</v>
       </c>
       <c r="O36">
-        <v>2641</v>
+        <v>537.428</v>
       </c>
       <c r="P36">
-        <v>1862</v>
+        <v>279.70299999999997</v>
       </c>
       <c r="Q36">
-        <v>-327</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4332</v>
+        <v>939.74</v>
       </c>
       <c r="U36">
-        <v>1943</v>
+        <v>352.09699999999998</v>
       </c>
       <c r="V36">
-        <v>143</v>
+        <v>39.369</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-549</v>
+        <v>39.133000000000003</v>
       </c>
       <c r="Y36">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>155</v>
+        <v>-59.287999999999997</v>
       </c>
       <c r="AA36">
-        <v>296</v>
+        <v>24.687999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>234</v>
+        <v>17.077000000000002</v>
       </c>
       <c r="D37">
-        <v>907</v>
+        <v>158.36000000000001</v>
       </c>
       <c r="E37">
-        <v>541</v>
+        <v>162.905</v>
       </c>
       <c r="F37">
-        <v>657</v>
+        <v>108.79600000000001</v>
       </c>
       <c r="G37">
-        <v>4222</v>
+        <v>1031.356</v>
       </c>
       <c r="H37">
-        <v>7089</v>
+        <v>1541.7159999999999</v>
       </c>
       <c r="I37">
-        <v>143</v>
+        <v>41.750999999999998</v>
       </c>
       <c r="J37">
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>619</v>
+        <v>412.642</v>
       </c>
       <c r="O37">
-        <v>2650</v>
+        <v>539.596</v>
       </c>
       <c r="P37">
-        <v>1871</v>
+        <v>284.70800000000003</v>
       </c>
       <c r="Q37">
-        <v>-128</v>
+        <v>-113.569</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4439</v>
+        <v>1002.12</v>
       </c>
       <c r="U37">
-        <v>1815</v>
+        <v>238.52799999999999</v>
       </c>
       <c r="V37">
-        <v>267</v>
+        <v>20.785</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-173</v>
+        <v>25.341000000000001</v>
       </c>
       <c r="Y37">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-169</v>
+        <v>-137.97200000000001</v>
       </c>
       <c r="AA37">
-        <v>234</v>
+        <v>17.077000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43828</v>
+        <v>40181</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>239</v>
+        <v>11.705</v>
       </c>
       <c r="D38">
-        <v>952</v>
+        <v>180.56399999999999</v>
       </c>
       <c r="E38">
-        <v>573</v>
+        <v>156.13800000000001</v>
       </c>
       <c r="F38">
-        <v>668</v>
+        <v>127.196</v>
       </c>
       <c r="G38">
-        <v>4451</v>
+        <v>981.59</v>
       </c>
       <c r="H38">
-        <v>7316</v>
+        <v>1429.9369999999999</v>
       </c>
       <c r="I38">
-        <v>149</v>
+        <v>52.780999999999999</v>
       </c>
       <c r="J38">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>665</v>
+        <v>441.23599999999999</v>
       </c>
       <c r="O38">
-        <v>2703</v>
+        <v>565.68899999999996</v>
       </c>
       <c r="P38">
-        <v>1881</v>
+        <v>290.202</v>
       </c>
       <c r="Q38">
-        <v>227</v>
+        <v>-93.894999999999996</v>
       </c>
       <c r="R38">
-        <v>43828</v>
+        <v>40181</v>
       </c>
       <c r="S38">
-        <v>7700</v>
+        <v>1781</v>
       </c>
       <c r="T38">
-        <v>4613</v>
+        <v>864.24800000000005</v>
       </c>
       <c r="U38">
-        <v>2042</v>
+        <v>144.63300000000001</v>
       </c>
       <c r="V38">
-        <v>443</v>
+        <v>61.289000000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-115</v>
+        <v>-171.149</v>
       </c>
       <c r="Y38">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-29</v>
+        <v>25.338000000000001</v>
       </c>
       <c r="AA38">
-        <v>239</v>
+        <v>11.705</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43919</v>
+        <v>40272</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>173</v>
+        <v>21.207999999999998</v>
       </c>
       <c r="D39">
-        <v>859</v>
+        <v>192.131</v>
       </c>
       <c r="E39">
-        <v>472</v>
+        <v>156.03</v>
       </c>
       <c r="F39">
-        <v>626</v>
+        <v>133.798</v>
       </c>
       <c r="G39">
-        <v>4324</v>
+        <v>1040.5139999999999</v>
       </c>
       <c r="H39">
-        <v>7261</v>
+        <v>1505.211</v>
       </c>
       <c r="I39">
-        <v>130</v>
+        <v>47.55</v>
       </c>
       <c r="J39">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1054</v>
+        <v>445.84</v>
       </c>
       <c r="O39">
-        <v>2626</v>
+        <v>563.41399999999999</v>
       </c>
       <c r="P39">
-        <v>1893</v>
+        <v>295.404</v>
       </c>
       <c r="Q39">
-        <v>-51</v>
+        <v>68.591999999999999</v>
       </c>
       <c r="R39">
-        <v>43919</v>
+        <v>40272</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4635</v>
+        <v>941.79700000000003</v>
       </c>
       <c r="U39">
-        <v>1991</v>
+        <v>213.22499999999999</v>
       </c>
       <c r="V39">
-        <v>281</v>
+        <v>59.064999999999998</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-191</v>
+        <v>34.305999999999997</v>
       </c>
       <c r="Y39">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>37</v>
+        <v>-3.484</v>
       </c>
       <c r="AA39">
-        <v>173</v>
+        <v>21.207999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44010</v>
+        <v>40363</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>47</v>
+        <v>29.795999999999999</v>
       </c>
       <c r="D40">
-        <v>633</v>
+        <v>212.00299999999999</v>
       </c>
       <c r="E40">
-        <v>385</v>
+        <v>147.93899999999999</v>
       </c>
       <c r="F40">
-        <v>435</v>
+        <v>147.68600000000001</v>
       </c>
       <c r="G40">
-        <v>4194</v>
+        <v>1088.2670000000001</v>
       </c>
       <c r="H40">
-        <v>7248</v>
+        <v>1641.885</v>
       </c>
       <c r="I40">
-        <v>135</v>
+        <v>57.573999999999998</v>
       </c>
       <c r="J40">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1115</v>
+        <v>481.85599999999999</v>
       </c>
       <c r="O40">
-        <v>2685</v>
+        <v>604.92499999999995</v>
       </c>
       <c r="P40">
-        <v>1891</v>
+        <v>300.70499999999998</v>
       </c>
       <c r="Q40">
-        <v>-221</v>
+        <v>23.962</v>
       </c>
       <c r="R40">
-        <v>44010</v>
+        <v>40363</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4563</v>
+        <v>1036.96</v>
       </c>
       <c r="U40">
-        <v>1770</v>
+        <v>237.18700000000001</v>
       </c>
       <c r="V40">
-        <v>240</v>
+        <v>77.198999999999998</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-143</v>
+        <v>43.216000000000001</v>
       </c>
       <c r="Y40">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-186</v>
+        <v>-16.248999999999999</v>
       </c>
       <c r="AA40">
-        <v>47</v>
+        <v>29.795999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>179</v>
+        <v>35.447000000000003</v>
       </c>
       <c r="D41">
-        <v>794</v>
+        <v>237.309</v>
       </c>
       <c r="E41">
-        <v>464</v>
+        <v>170.61799999999999</v>
       </c>
       <c r="F41">
-        <v>533</v>
+        <v>159.44</v>
       </c>
       <c r="G41">
-        <v>4329</v>
+        <v>1140.347</v>
       </c>
       <c r="H41">
-        <v>7404</v>
+        <v>1725.221</v>
       </c>
       <c r="I41">
-        <v>156</v>
+        <v>59.792000000000002</v>
       </c>
       <c r="J41">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1115</v>
+        <v>500.42399999999998</v>
       </c>
       <c r="O41">
-        <v>2704</v>
+        <v>617.1</v>
       </c>
       <c r="P41">
-        <v>1905</v>
+        <v>306.10599999999999</v>
       </c>
       <c r="Q41">
-        <v>-9</v>
+        <v>-26.42</v>
       </c>
       <c r="R41">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4700</v>
+        <v>1108.1210000000001</v>
       </c>
       <c r="U41">
-        <v>1761</v>
+        <v>210.767</v>
       </c>
       <c r="V41">
-        <v>153</v>
+        <v>54.828000000000003</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-101</v>
+        <v>12.407999999999999</v>
       </c>
       <c r="Y41">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-14</v>
+        <v>-53.119</v>
       </c>
       <c r="AA41">
-        <v>179</v>
+        <v>35.447000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44199</v>
+        <v>40545</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>38.44</v>
+      </c>
+      <c r="D42">
+        <v>261.298</v>
+      </c>
+      <c r="E42">
+        <v>163.43100000000001</v>
+      </c>
+      <c r="F42">
+        <v>168.42099999999999</v>
+      </c>
+      <c r="G42">
+        <v>1258.3979999999999</v>
+      </c>
+      <c r="H42">
+        <v>1839.1130000000001</v>
+      </c>
+      <c r="I42">
+        <v>66.744</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>534.51700000000005</v>
+      </c>
+      <c r="O42">
+        <v>641.43799999999999</v>
+      </c>
+      <c r="P42">
+        <v>311.60899999999998</v>
+      </c>
+      <c r="Q42">
+        <v>38.18</v>
+      </c>
+      <c r="R42">
+        <v>40545</v>
+      </c>
+      <c r="S42">
+        <v>2100</v>
+      </c>
+      <c r="T42">
+        <v>1197.675</v>
+      </c>
+      <c r="U42">
+        <v>248.947</v>
+      </c>
+      <c r="V42">
+        <v>81.480999999999995</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>26.544</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-57.521999999999998</v>
+      </c>
+      <c r="AA42">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>24.137</v>
+      </c>
+      <c r="D43">
+        <v>282.51499999999999</v>
+      </c>
+      <c r="E43">
+        <v>181.92400000000001</v>
+      </c>
+      <c r="F43">
+        <v>191.02600000000001</v>
+      </c>
+      <c r="G43">
+        <v>1511.473</v>
+      </c>
+      <c r="H43">
+        <v>2123.1489999999999</v>
+      </c>
+      <c r="I43">
+        <v>66.287000000000006</v>
+      </c>
+      <c r="J43">
+        <v>652.08299999999997</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-253.13499999999999</v>
+      </c>
+      <c r="N43">
+        <v>345.31299999999999</v>
+      </c>
+      <c r="O43">
+        <v>1058.923</v>
+      </c>
+      <c r="P43">
+        <v>763.40599999999995</v>
+      </c>
+      <c r="Q43">
+        <v>161.39400000000001</v>
+      </c>
+      <c r="R43">
+        <v>40636</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1064.2260000000001</v>
+      </c>
+      <c r="U43">
+        <v>410.34100000000001</v>
+      </c>
+      <c r="V43">
+        <v>88.578000000000003</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>225.48099999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-82.16</v>
+      </c>
+      <c r="AA43">
+        <v>24.137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40727</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>30.62</v>
+      </c>
+      <c r="D44">
+        <v>287.45</v>
+      </c>
+      <c r="E44">
+        <v>193.43100000000001</v>
+      </c>
+      <c r="F44">
+        <v>196.39099999999999</v>
+      </c>
+      <c r="G44">
+        <v>1623.3150000000001</v>
+      </c>
+      <c r="H44">
+        <v>2256.9859999999999</v>
+      </c>
+      <c r="I44">
+        <v>58.27</v>
+      </c>
+      <c r="J44">
+        <v>757.274</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>284.45499999999998</v>
+      </c>
+      <c r="O44">
+        <v>1088.682</v>
+      </c>
+      <c r="P44">
+        <v>797.923</v>
+      </c>
+      <c r="Q44">
+        <v>-149.25700000000001</v>
+      </c>
+      <c r="R44">
+        <v>40727</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1168.3040000000001</v>
+      </c>
+      <c r="U44">
+        <v>261.084</v>
+      </c>
+      <c r="V44">
+        <v>71.22</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>51.517000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-255.07300000000001</v>
+      </c>
+      <c r="AA44">
+        <v>30.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>20.151</v>
+      </c>
+      <c r="D45">
+        <v>235.499</v>
+      </c>
+      <c r="E45">
+        <v>169.05199999999999</v>
+      </c>
+      <c r="F45">
+        <v>160.15</v>
+      </c>
+      <c r="G45">
+        <v>1504.2139999999999</v>
+      </c>
+      <c r="H45">
+        <v>2147.0590000000002</v>
+      </c>
+      <c r="I45">
+        <v>52.249000000000002</v>
+      </c>
+      <c r="J45">
+        <v>765.077</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>297.21300000000002</v>
+      </c>
+      <c r="O45">
+        <v>1111.519</v>
+      </c>
+      <c r="P45">
+        <v>798.87</v>
+      </c>
+      <c r="Q45">
+        <v>-31.238</v>
+      </c>
+      <c r="R45">
+        <v>40818</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1035.54</v>
+      </c>
+      <c r="U45">
+        <v>229.846</v>
+      </c>
+      <c r="V45">
+        <v>90.042000000000002</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-187.83</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>89.281999999999996</v>
+      </c>
+      <c r="AA45">
+        <v>20.151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>11.72</v>
+      </c>
+      <c r="D46">
+        <v>250.071</v>
+      </c>
+      <c r="E46">
+        <v>171.22900000000001</v>
+      </c>
+      <c r="F46">
+        <v>173.62200000000001</v>
+      </c>
+      <c r="G46">
+        <v>1544.6189999999999</v>
+      </c>
+      <c r="H46">
+        <v>2195.84</v>
+      </c>
+      <c r="I46">
+        <v>49.805999999999997</v>
+      </c>
+      <c r="J46">
+        <v>807.36900000000003</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>226.92099999999999</v>
+      </c>
+      <c r="O46">
+        <v>1120.625</v>
+      </c>
+      <c r="P46">
+        <v>807.36900000000003</v>
+      </c>
+      <c r="Q46">
+        <v>73.132000000000005</v>
+      </c>
+      <c r="R46">
+        <v>40909</v>
+      </c>
+      <c r="S46">
+        <v>2200</v>
+      </c>
+      <c r="T46">
+        <v>1075.2149999999999</v>
+      </c>
+      <c r="U46">
+        <v>302.97800000000001</v>
+      </c>
+      <c r="V46">
+        <v>108.3</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>7.8479999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-15.196</v>
+      </c>
+      <c r="AA46">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>26.202000000000002</v>
+      </c>
+      <c r="D47">
+        <v>272.77</v>
+      </c>
+      <c r="E47">
+        <v>202.23400000000001</v>
+      </c>
+      <c r="F47">
+        <v>184.054</v>
+      </c>
+      <c r="G47">
+        <v>1637.2909999999999</v>
+      </c>
+      <c r="H47">
+        <v>2301.4740000000002</v>
+      </c>
+      <c r="I47">
+        <v>59.860999999999997</v>
+      </c>
+      <c r="J47">
+        <v>780.94299999999998</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>292.92599999999999</v>
+      </c>
+      <c r="O47">
+        <v>1141.3019999999999</v>
+      </c>
+      <c r="P47">
+        <v>815.96799999999996</v>
+      </c>
+      <c r="Q47">
+        <v>-42.783999999999999</v>
+      </c>
+      <c r="R47">
+        <v>41000</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1160.172</v>
+      </c>
+      <c r="U47">
+        <v>260.19400000000002</v>
+      </c>
+      <c r="V47">
+        <v>65.44</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>33.616</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-128.786</v>
+      </c>
+      <c r="AA47">
+        <v>26.202000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>23.401</v>
+      </c>
+      <c r="D48">
+        <v>280.60700000000003</v>
+      </c>
+      <c r="E48">
+        <v>188.56200000000001</v>
+      </c>
+      <c r="F48">
+        <v>196.04</v>
+      </c>
+      <c r="G48">
+        <v>1664.3720000000001</v>
+      </c>
+      <c r="H48">
+        <v>2348.7379999999998</v>
+      </c>
+      <c r="I48">
+        <v>56.667999999999999</v>
+      </c>
+      <c r="J48">
+        <v>789.00800000000004</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>299.14100000000002</v>
+      </c>
+      <c r="O48">
+        <v>1167.9549999999999</v>
+      </c>
+      <c r="P48">
+        <v>824.66800000000001</v>
+      </c>
+      <c r="Q48">
+        <v>56.218000000000004</v>
+      </c>
+      <c r="R48">
+        <v>41091</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1180.7829999999999</v>
+      </c>
+      <c r="U48">
+        <v>316.41199999999998</v>
+      </c>
+      <c r="V48">
+        <v>96.328999999999994</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-30.263999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>11.298</v>
+      </c>
+      <c r="AA48">
+        <v>23.401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>29.748000000000001</v>
+      </c>
+      <c r="D49">
+        <v>285.87400000000002</v>
+      </c>
+      <c r="E49">
+        <v>218.14500000000001</v>
+      </c>
+      <c r="F49">
+        <v>199.46100000000001</v>
+      </c>
+      <c r="G49">
+        <v>1646.2360000000001</v>
+      </c>
+      <c r="H49">
+        <v>2437.9830000000002</v>
+      </c>
+      <c r="I49">
+        <v>74.971000000000004</v>
+      </c>
+      <c r="J49">
+        <v>797.16200000000003</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>303.09899999999999</v>
+      </c>
+      <c r="O49">
+        <v>1215.769</v>
+      </c>
+      <c r="P49">
+        <v>833.46900000000005</v>
+      </c>
+      <c r="Q49">
+        <v>26.677</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1222.2139999999999</v>
+      </c>
+      <c r="U49">
+        <v>343.089</v>
+      </c>
+      <c r="V49">
+        <v>51.228000000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-8.0649999999999995</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>95.03</v>
+      </c>
+      <c r="AA49">
+        <v>29.748000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>71.903000000000006</v>
+      </c>
+      <c r="D50">
+        <v>309.26499999999999</v>
+      </c>
+      <c r="E50">
+        <v>213.089</v>
+      </c>
+      <c r="F50">
+        <v>208.126</v>
+      </c>
+      <c r="G50">
+        <v>1787.048</v>
+      </c>
+      <c r="H50">
+        <v>2566.085</v>
+      </c>
+      <c r="I50">
+        <v>65.727000000000004</v>
+      </c>
+      <c r="J50">
+        <v>805.40599999999995</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>304.57100000000003</v>
+      </c>
+      <c r="O50">
+        <v>1247.5039999999999</v>
+      </c>
+      <c r="P50">
+        <v>842.37300000000005</v>
+      </c>
+      <c r="Q50">
+        <v>90.891999999999996</v>
+      </c>
+      <c r="R50">
+        <v>41273</v>
+      </c>
+      <c r="S50">
+        <v>2400</v>
+      </c>
+      <c r="T50">
+        <v>1318.5809999999999</v>
+      </c>
+      <c r="U50">
+        <v>433.98099999999999</v>
+      </c>
+      <c r="V50">
+        <v>78.876000000000005</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-6.0419999999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>36.610999999999997</v>
+      </c>
+      <c r="AA50">
+        <v>71.903000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-22.587</v>
+      </c>
+      <c r="D51">
+        <v>330.95800000000003</v>
+      </c>
+      <c r="E51">
+        <v>210.83099999999999</v>
+      </c>
+      <c r="F51">
+        <v>226.88900000000001</v>
+      </c>
+      <c r="G51">
+        <v>1550.7729999999999</v>
+      </c>
+      <c r="H51">
+        <v>2744.1880000000001</v>
+      </c>
+      <c r="I51">
+        <v>76.626999999999995</v>
+      </c>
+      <c r="J51">
+        <v>813.74099999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="N51">
+        <v>409.94099999999997</v>
+      </c>
+      <c r="O51">
+        <v>1432.3610000000001</v>
+      </c>
+      <c r="P51">
+        <v>851.38199999999995</v>
+      </c>
+      <c r="Q51">
+        <v>9.1010000000000009</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1311.827</v>
+      </c>
+      <c r="U51">
+        <v>443.08199999999999</v>
+      </c>
+      <c r="V51">
+        <v>87.84</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-13.006</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>302.03199999999998</v>
+      </c>
+      <c r="AA51">
+        <v>-22.587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>35.877000000000002</v>
+      </c>
+      <c r="D52">
+        <v>346.09399999999999</v>
+      </c>
+      <c r="E52">
+        <v>207.41300000000001</v>
+      </c>
+      <c r="F52">
+        <v>231.99299999999999</v>
+      </c>
+      <c r="G52">
+        <v>1646.3910000000001</v>
+      </c>
+      <c r="H52">
+        <v>2823.2020000000002</v>
+      </c>
+      <c r="I52">
+        <v>67.647999999999996</v>
+      </c>
+      <c r="J52">
+        <v>822.16899999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>418.88</v>
+      </c>
+      <c r="O52">
+        <v>1434.61</v>
+      </c>
+      <c r="P52">
+        <v>851.9</v>
+      </c>
+      <c r="Q52">
+        <v>340.529</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1388.5920000000001</v>
+      </c>
+      <c r="U52">
+        <v>783.61099999999999</v>
+      </c>
+      <c r="V52">
+        <v>88.605999999999995</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>261.40300000000002</v>
+      </c>
+      <c r="AA52">
+        <v>35.877000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>31.356999999999999</v>
+      </c>
+      <c r="D53">
+        <v>356.8</v>
+      </c>
+      <c r="E53">
+        <v>235.43700000000001</v>
+      </c>
+      <c r="F53">
+        <v>244.417</v>
+      </c>
+      <c r="G53">
+        <v>1537.646</v>
+      </c>
+      <c r="H53">
+        <v>2817.6959999999999</v>
+      </c>
+      <c r="I53">
+        <v>63.125999999999998</v>
+      </c>
+      <c r="J53">
+        <v>830.69</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>418.92500000000001</v>
+      </c>
+      <c r="O53">
+        <v>1443.232</v>
+      </c>
+      <c r="P53">
+        <v>859.5</v>
+      </c>
+      <c r="Q53">
+        <v>-91.775000000000006</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1374.4639999999999</v>
+      </c>
+      <c r="U53">
+        <v>691.83600000000001</v>
+      </c>
+      <c r="V53">
+        <v>83.135999999999996</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-75.052999999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>9.9540000000000006</v>
+      </c>
+      <c r="AA53">
+        <v>31.356999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>80.661000000000001</v>
+      </c>
+      <c r="D54">
+        <v>387.32600000000002</v>
+      </c>
+      <c r="E54">
+        <v>237.68</v>
+      </c>
+      <c r="F54">
+        <v>256.05200000000002</v>
+      </c>
+      <c r="G54">
+        <v>1617.5350000000001</v>
+      </c>
+      <c r="H54">
+        <v>3019.0059999999999</v>
+      </c>
+      <c r="I54">
+        <v>73.655000000000001</v>
+      </c>
+      <c r="J54">
+        <v>839.30499999999995</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>322.06299999999999</v>
+      </c>
+      <c r="O54">
+        <v>1485.8040000000001</v>
+      </c>
+      <c r="P54">
+        <v>868.59299999999996</v>
+      </c>
+      <c r="Q54">
+        <v>19.800999999999998</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>3000</v>
+      </c>
+      <c r="T54">
+        <v>1533.202</v>
+      </c>
+      <c r="U54">
+        <v>711.63699999999994</v>
+      </c>
+      <c r="V54">
+        <v>126.839</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>43.555999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-28.978000000000002</v>
+      </c>
+      <c r="AA54">
+        <v>80.661000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>59.976999999999997</v>
+      </c>
+      <c r="D55">
+        <v>420.78100000000001</v>
+      </c>
+      <c r="E55">
+        <v>293.04500000000002</v>
+      </c>
+      <c r="F55">
+        <v>287.827</v>
+      </c>
+      <c r="G55">
+        <v>1631.943</v>
+      </c>
+      <c r="H55">
+        <v>3053.57</v>
+      </c>
+      <c r="I55">
+        <v>86.471000000000004</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-29.654</v>
+      </c>
+      <c r="N55">
+        <v>1149.779</v>
+      </c>
+      <c r="O55">
+        <v>1479.9570000000001</v>
+      </c>
+      <c r="P55">
+        <v>848.01599999999996</v>
+      </c>
+      <c r="Q55">
+        <v>-193.124</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1573.6130000000001</v>
+      </c>
+      <c r="U55">
+        <v>518.51300000000003</v>
+      </c>
+      <c r="V55">
+        <v>37.087000000000003</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-85.924000000000007</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-124.75</v>
+      </c>
+      <c r="AA55">
+        <v>59.976999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>46.604999999999997</v>
+      </c>
+      <c r="D56">
+        <v>447.56799999999998</v>
+      </c>
+      <c r="E56">
+        <v>258.69400000000002</v>
+      </c>
+      <c r="F56">
+        <v>310.08499999999998</v>
+      </c>
+      <c r="G56">
+        <v>1620.721</v>
+      </c>
+      <c r="H56">
+        <v>3035.0549999999998</v>
+      </c>
+      <c r="I56">
+        <v>91.513000000000005</v>
+      </c>
+      <c r="J56">
+        <v>972.94500000000005</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>649.20699999999999</v>
+      </c>
+      <c r="O56">
+        <v>1954.6189999999999</v>
+      </c>
+      <c r="P56">
+        <v>1270.963</v>
+      </c>
+      <c r="Q56">
+        <v>156.708</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1080.4359999999999</v>
+      </c>
+      <c r="U56">
+        <v>675.221</v>
+      </c>
+      <c r="V56">
+        <v>178.03</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-136.52099999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>138.101</v>
+      </c>
+      <c r="AA56">
+        <v>46.604999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>93.489000000000004</v>
+      </c>
+      <c r="D57">
+        <v>480.63</v>
+      </c>
+      <c r="E57">
+        <v>276.67500000000001</v>
+      </c>
+      <c r="F57">
+        <v>343.61799999999999</v>
+      </c>
+      <c r="G57">
+        <v>1906.954</v>
+      </c>
+      <c r="H57">
+        <v>3278.2060000000001</v>
+      </c>
+      <c r="I57">
+        <v>96.069000000000003</v>
+      </c>
+      <c r="J57">
+        <v>979.83600000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>856.40099999999995</v>
+      </c>
+      <c r="O57">
+        <v>2003.893</v>
+      </c>
+      <c r="P57">
+        <v>1280.9549999999999</v>
+      </c>
+      <c r="Q57">
+        <v>154.67400000000001</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1274.3130000000001</v>
+      </c>
+      <c r="U57">
+        <v>829.89499999999998</v>
+      </c>
+      <c r="V57">
+        <v>145.60499999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>55.494999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-6.0229999999999997</v>
+      </c>
+      <c r="AA57">
+        <v>93.489000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>153.28</v>
+      </c>
+      <c r="D58">
+        <v>512.37900000000002</v>
+      </c>
+      <c r="E58">
+        <v>287.38799999999998</v>
+      </c>
+      <c r="F58">
+        <v>395.553</v>
+      </c>
+      <c r="G58">
+        <v>1889.6030000000001</v>
+      </c>
+      <c r="H58">
+        <v>3339.64</v>
+      </c>
+      <c r="I58">
+        <v>82.626000000000005</v>
+      </c>
+      <c r="J58">
+        <v>986.78</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>722.15800000000002</v>
+      </c>
+      <c r="O58">
+        <v>1876.8420000000001</v>
+      </c>
+      <c r="P58">
+        <v>1291.0360000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-193.74100000000001</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>3700</v>
+      </c>
+      <c r="T58">
+        <v>1462.798</v>
+      </c>
+      <c r="U58">
+        <v>636.154</v>
+      </c>
+      <c r="V58">
+        <v>140.54900000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-268.45100000000002</v>
+      </c>
+      <c r="AA58">
+        <v>153.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>136.65799999999999</v>
+      </c>
+      <c r="D59">
+        <v>538.56500000000005</v>
+      </c>
+      <c r="E59">
+        <v>350.04399999999998</v>
+      </c>
+      <c r="F59">
+        <v>386.41199999999998</v>
+      </c>
+      <c r="G59">
+        <v>2060.2809999999999</v>
+      </c>
+      <c r="H59">
+        <v>3499.0929999999998</v>
+      </c>
+      <c r="I59">
+        <v>106.67400000000001</v>
+      </c>
+      <c r="J59">
+        <v>993.77700000000004</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-0.114</v>
+      </c>
+      <c r="N59">
+        <v>710.25099999999998</v>
+      </c>
+      <c r="O59">
+        <v>1875.7670000000001</v>
+      </c>
+      <c r="P59">
+        <v>1301.204</v>
+      </c>
+      <c r="Q59">
+        <v>-102.617</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1623.326</v>
+      </c>
+      <c r="U59">
+        <v>533.53700000000003</v>
+      </c>
+      <c r="V59">
+        <v>66.778999999999996</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-12.534000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-117.596</v>
+      </c>
+      <c r="AA59">
+        <v>136.65799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>102.247</v>
+      </c>
+      <c r="D60">
+        <v>539.37800000000004</v>
+      </c>
+      <c r="E60">
+        <v>368.61099999999999</v>
+      </c>
+      <c r="F60">
+        <v>387.74900000000002</v>
+      </c>
+      <c r="G60">
+        <v>2237.6909999999998</v>
+      </c>
+      <c r="H60">
+        <v>3703.125</v>
+      </c>
+      <c r="I60">
+        <v>107.884</v>
+      </c>
+      <c r="J60">
+        <v>1000.829</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>725.053</v>
+      </c>
+      <c r="O60">
+        <v>1909.213</v>
+      </c>
+      <c r="P60">
+        <v>1303.2760000000001</v>
+      </c>
+      <c r="Q60">
+        <v>57.52</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1793.912</v>
+      </c>
+      <c r="U60">
+        <v>591.05700000000002</v>
+      </c>
+      <c r="V60">
+        <v>171.44499999999999</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>27.81</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-100.84399999999999</v>
+      </c>
+      <c r="AA60">
+        <v>102.247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>118.17700000000001</v>
+      </c>
+      <c r="D61">
+        <v>550.27099999999996</v>
+      </c>
+      <c r="E61">
+        <v>413.47399999999999</v>
+      </c>
+      <c r="F61">
+        <v>399.72699999999998</v>
+      </c>
+      <c r="G61">
+        <v>2210.4279999999999</v>
+      </c>
+      <c r="H61">
+        <v>3733.5479999999998</v>
+      </c>
+      <c r="I61">
+        <v>123.432</v>
+      </c>
+      <c r="J61">
+        <v>1007.9349999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>583.85699999999997</v>
+      </c>
+      <c r="O61">
+        <v>1764.8530000000001</v>
+      </c>
+      <c r="P61">
+        <v>1110.1010000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-39.527999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42274</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1968.6949999999999</v>
+      </c>
+      <c r="U61">
+        <v>551.529</v>
+      </c>
+      <c r="V61">
+        <v>180.994</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-180.89699999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>25.757999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>118.17700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>104.477</v>
+      </c>
+      <c r="D62">
+        <v>591.548</v>
+      </c>
+      <c r="E62">
+        <v>384.89299999999997</v>
+      </c>
+      <c r="F62">
+        <v>421.21199999999999</v>
+      </c>
+      <c r="G62">
+        <v>2096.8229999999999</v>
+      </c>
+      <c r="H62">
+        <v>3687.7469999999998</v>
+      </c>
+      <c r="I62">
+        <v>139.226</v>
+      </c>
+      <c r="J62">
+        <v>1015.649</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>610.49400000000003</v>
+      </c>
+      <c r="O62">
+        <v>1806.6479999999999</v>
+      </c>
+      <c r="P62">
+        <v>1090.578</v>
+      </c>
+      <c r="Q62">
+        <v>217.24100000000001</v>
+      </c>
+      <c r="R62">
+        <v>42372</v>
+      </c>
+      <c r="S62">
+        <v>4600</v>
+      </c>
+      <c r="T62">
+        <v>1881.0989999999999</v>
+      </c>
+      <c r="U62">
+        <v>768.77</v>
+      </c>
+      <c r="V62">
+        <v>240.37799999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-253.14099999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>266.36399999999998</v>
+      </c>
+      <c r="AA62">
+        <v>104.477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>90</v>
+      </c>
+      <c r="D63">
+        <v>572</v>
+      </c>
+      <c r="E63">
+        <v>402.51400000000001</v>
+      </c>
+      <c r="F63">
+        <v>408</v>
+      </c>
+      <c r="G63">
+        <v>2073.7979999999998</v>
+      </c>
+      <c r="H63">
+        <v>3793.7060000000001</v>
+      </c>
+      <c r="I63">
+        <v>154.68</v>
+      </c>
+      <c r="J63">
+        <v>1022.646</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-76</v>
+      </c>
+      <c r="N63">
+        <v>481.22800000000001</v>
+      </c>
+      <c r="O63">
+        <v>1689.4</v>
+      </c>
+      <c r="P63">
+        <v>1022.646</v>
+      </c>
+      <c r="Q63">
+        <v>-14</v>
+      </c>
+      <c r="R63">
+        <v>42463</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2104.306</v>
+      </c>
+      <c r="U63">
+        <v>754.91</v>
+      </c>
+      <c r="V63">
+        <v>99</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-71</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>27</v>
+      </c>
+      <c r="AA63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>120</v>
+      </c>
+      <c r="D64">
+        <v>600</v>
+      </c>
+      <c r="E64">
+        <v>372.48</v>
+      </c>
+      <c r="F64">
+        <v>434</v>
+      </c>
+      <c r="G64">
+        <v>2143.0210000000002</v>
+      </c>
+      <c r="H64">
+        <v>3985.09</v>
+      </c>
+      <c r="I64">
+        <v>250.67</v>
+      </c>
+      <c r="J64">
+        <v>1031.3699999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>581.50699999999995</v>
+      </c>
+      <c r="O64">
+        <v>1811.4449999999999</v>
+      </c>
+      <c r="P64">
+        <v>1031.8810000000001</v>
+      </c>
+      <c r="Q64">
+        <v>197</v>
+      </c>
+      <c r="R64">
+        <v>42554</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2173.645</v>
+      </c>
+      <c r="U64">
+        <v>951.66200000000003</v>
+      </c>
+      <c r="V64">
+        <v>242</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-89</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>112</v>
+      </c>
+      <c r="AA64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>129</v>
+      </c>
+      <c r="D65">
+        <v>607</v>
+      </c>
+      <c r="E65">
+        <v>381.63200000000001</v>
+      </c>
+      <c r="F65">
+        <v>437</v>
+      </c>
+      <c r="G65">
+        <v>2277.8359999999998</v>
+      </c>
+      <c r="H65">
+        <v>4227.8270000000002</v>
+      </c>
+      <c r="I65">
+        <v>134.09</v>
+      </c>
+      <c r="J65">
+        <v>1040.7650000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>628.85500000000002</v>
+      </c>
+      <c r="O65">
+        <v>1873.893</v>
+      </c>
+      <c r="P65">
+        <v>1042.0150000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-157</v>
+      </c>
+      <c r="R65">
+        <v>42645</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2353.9340000000002</v>
+      </c>
+      <c r="U65">
+        <v>794.697</v>
+      </c>
+      <c r="V65">
+        <v>176</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>9</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-273</v>
+      </c>
+      <c r="AA65">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>124</v>
+      </c>
+      <c r="D66">
+        <v>619</v>
+      </c>
+      <c r="E66">
+        <v>381</v>
+      </c>
+      <c r="F66">
+        <v>430</v>
+      </c>
+      <c r="G66">
+        <v>2318</v>
+      </c>
+      <c r="H66">
+        <v>4281</v>
+      </c>
+      <c r="I66">
+        <v>138</v>
+      </c>
+      <c r="J66">
+        <v>1056</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>705</v>
+      </c>
+      <c r="O66">
+        <v>1967</v>
+      </c>
+      <c r="P66">
+        <v>1058</v>
+      </c>
+      <c r="Q66">
+        <v>-60</v>
+      </c>
+      <c r="R66">
+        <v>42736</v>
+      </c>
+      <c r="S66">
+        <v>5500</v>
+      </c>
+      <c r="T66">
+        <v>2314</v>
+      </c>
+      <c r="U66">
+        <v>735</v>
+      </c>
+      <c r="V66">
+        <v>262</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-145</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-92</v>
+      </c>
+      <c r="AA66">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>367</v>
+      </c>
+      <c r="D67">
+        <v>598</v>
+      </c>
+      <c r="E67">
+        <v>368</v>
+      </c>
+      <c r="F67">
+        <v>397</v>
+      </c>
+      <c r="G67">
+        <v>2517</v>
+      </c>
+      <c r="H67">
+        <v>4598</v>
+      </c>
+      <c r="I67">
+        <v>142</v>
+      </c>
+      <c r="J67">
+        <v>1055</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67">
+        <v>721</v>
+      </c>
+      <c r="O67">
+        <v>1988</v>
+      </c>
+      <c r="P67">
+        <v>1056</v>
+      </c>
+      <c r="Q67">
+        <v>246</v>
+      </c>
+      <c r="R67">
+        <v>42827</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2610</v>
+      </c>
+      <c r="U67">
+        <v>981</v>
+      </c>
+      <c r="V67">
+        <v>168</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-86</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>20</v>
+      </c>
+      <c r="AA67">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>128</v>
+      </c>
+      <c r="D68">
+        <v>662</v>
+      </c>
+      <c r="E68">
+        <v>372</v>
+      </c>
+      <c r="F68">
+        <v>444</v>
+      </c>
+      <c r="G68">
+        <v>2643</v>
+      </c>
+      <c r="H68">
+        <v>4858</v>
+      </c>
+      <c r="I68">
+        <v>175</v>
+      </c>
+      <c r="J68">
+        <v>1169</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>682</v>
+      </c>
+      <c r="O68">
+        <v>2063</v>
+      </c>
+      <c r="P68">
+        <v>1174</v>
+      </c>
+      <c r="Q68">
+        <v>238</v>
+      </c>
+      <c r="R68">
+        <v>42918</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2795</v>
+      </c>
+      <c r="U68">
+        <v>1219</v>
+      </c>
+      <c r="V68">
+        <v>178</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>24</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>104</v>
+      </c>
+      <c r="AA68">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>163</v>
+      </c>
+      <c r="D69">
+        <v>714</v>
+      </c>
+      <c r="E69">
+        <v>383</v>
+      </c>
+      <c r="F69">
+        <v>491</v>
+      </c>
+      <c r="G69">
+        <v>2805</v>
+      </c>
+      <c r="H69">
+        <v>5046</v>
+      </c>
+      <c r="I69">
+        <v>158</v>
+      </c>
+      <c r="J69">
+        <v>1180</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>665</v>
+      </c>
+      <c r="O69">
+        <v>2067</v>
+      </c>
+      <c r="P69">
+        <v>1182</v>
+      </c>
+      <c r="Q69">
+        <v>135</v>
+      </c>
+      <c r="R69">
+        <v>43009</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2979</v>
+      </c>
+      <c r="U69">
+        <v>1354</v>
+      </c>
+      <c r="V69">
+        <v>235</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-13</v>
+      </c>
+      <c r="AA69">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>777</v>
+      </c>
+      <c r="E70">
+        <v>411</v>
+      </c>
+      <c r="F70">
+        <v>551</v>
+      </c>
+      <c r="G70">
+        <v>2980</v>
+      </c>
+      <c r="H70">
+        <v>5257</v>
+      </c>
+      <c r="I70">
+        <v>160</v>
+      </c>
+      <c r="J70">
+        <v>1069</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>746</v>
+      </c>
+      <c r="O70">
+        <v>2288</v>
+      </c>
+      <c r="P70">
+        <v>1192</v>
+      </c>
+      <c r="Q70">
+        <v>-129</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>6200</v>
+      </c>
+      <c r="T70">
+        <v>2969</v>
+      </c>
+      <c r="U70">
+        <v>1225</v>
+      </c>
+      <c r="V70">
+        <v>294</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-109</v>
+      </c>
+      <c r="Y70">
+        <v>113</v>
+      </c>
+      <c r="Z70">
+        <v>-239</v>
+      </c>
+      <c r="AA70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>208</v>
+      </c>
+      <c r="D71">
+        <v>782</v>
+      </c>
+      <c r="E71">
+        <v>400</v>
+      </c>
+      <c r="F71">
+        <v>546</v>
+      </c>
+      <c r="G71">
+        <v>3194</v>
+      </c>
+      <c r="H71">
+        <v>5542</v>
+      </c>
+      <c r="I71">
+        <v>151</v>
+      </c>
+      <c r="J71">
+        <v>710</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2</v>
+      </c>
+      <c r="N71">
+        <v>1180</v>
+      </c>
+      <c r="O71">
+        <v>2254</v>
+      </c>
+      <c r="P71">
+        <v>1330</v>
+      </c>
+      <c r="Q71">
+        <v>335</v>
+      </c>
+      <c r="R71">
+        <v>43191</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3288</v>
+      </c>
+      <c r="U71">
+        <v>1560</v>
+      </c>
+      <c r="V71">
+        <v>255</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>67</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>102</v>
+      </c>
+      <c r="AA71">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>209</v>
+      </c>
+      <c r="D72">
+        <v>830</v>
+      </c>
+      <c r="E72">
+        <v>395</v>
+      </c>
+      <c r="F72">
+        <v>584</v>
+      </c>
+      <c r="G72">
+        <v>3337</v>
+      </c>
+      <c r="H72">
+        <v>5851</v>
+      </c>
+      <c r="I72">
+        <v>149</v>
+      </c>
+      <c r="J72">
+        <v>723</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1217</v>
+      </c>
+      <c r="O72">
+        <v>2283</v>
+      </c>
+      <c r="P72">
+        <v>1348</v>
+      </c>
+      <c r="Q72">
+        <v>-216</v>
+      </c>
+      <c r="R72">
+        <v>43282</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3568</v>
+      </c>
+      <c r="U72">
+        <v>1344</v>
+      </c>
+      <c r="V72">
+        <v>295</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>30</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-360</v>
+      </c>
+      <c r="AA72">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>199</v>
+      </c>
+      <c r="D73">
+        <v>853</v>
+      </c>
+      <c r="E73">
+        <v>433</v>
+      </c>
+      <c r="F73">
+        <v>607</v>
+      </c>
+      <c r="G73">
+        <v>4262</v>
+      </c>
+      <c r="H73">
+        <v>6759</v>
+      </c>
+      <c r="I73">
+        <v>156</v>
+      </c>
+      <c r="J73">
+        <v>860</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1735</v>
+      </c>
+      <c r="O73">
+        <v>2947</v>
+      </c>
+      <c r="P73">
+        <v>1967</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3812</v>
+      </c>
+      <c r="U73">
+        <v>1346</v>
+      </c>
+      <c r="V73">
+        <v>292</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>651</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-876</v>
+      </c>
+      <c r="AA73">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43464</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>210</v>
+      </c>
+      <c r="D74">
+        <v>867</v>
+      </c>
+      <c r="E74">
+        <v>514</v>
+      </c>
+      <c r="F74">
+        <v>599</v>
+      </c>
+      <c r="G74">
+        <v>4490</v>
+      </c>
+      <c r="H74">
+        <v>6959</v>
+      </c>
+      <c r="I74">
+        <v>184</v>
+      </c>
+      <c r="J74">
+        <v>621</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1804</v>
+      </c>
+      <c r="O74">
+        <v>3053</v>
+      </c>
+      <c r="P74">
+        <v>1997</v>
+      </c>
+      <c r="Q74">
+        <v>-202</v>
+      </c>
+      <c r="R74">
+        <v>43464</v>
+      </c>
+      <c r="S74">
+        <v>7300</v>
+      </c>
+      <c r="T74">
+        <v>3906</v>
+      </c>
+      <c r="U74">
+        <v>1144</v>
+      </c>
+      <c r="V74">
+        <v>300</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-154</v>
+      </c>
+      <c r="Y74">
+        <v>269</v>
+      </c>
+      <c r="Z74">
+        <v>-283</v>
+      </c>
+      <c r="AA74">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>233</v>
+      </c>
+      <c r="D75">
+        <v>846</v>
+      </c>
+      <c r="E75">
+        <v>457</v>
+      </c>
+      <c r="F75">
+        <v>593</v>
+      </c>
+      <c r="G75">
+        <v>4545</v>
+      </c>
+      <c r="H75">
+        <v>7390</v>
+      </c>
+      <c r="I75">
+        <v>137</v>
+      </c>
+      <c r="J75">
+        <v>1112</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1</v>
+      </c>
+      <c r="N75">
+        <v>1241</v>
+      </c>
+      <c r="O75">
+        <v>3283</v>
+      </c>
+      <c r="P75">
+        <v>2513</v>
+      </c>
+      <c r="Q75">
+        <v>1126</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4107</v>
+      </c>
+      <c r="U75">
+        <v>2270</v>
+      </c>
+      <c r="V75">
+        <v>198</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-60</v>
+      </c>
+      <c r="Y75">
+        <v>718</v>
+      </c>
+      <c r="Z75">
+        <v>1029</v>
+      </c>
+      <c r="AA75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>296</v>
+      </c>
+      <c r="D76">
+        <v>838</v>
+      </c>
+      <c r="E76">
+        <v>470</v>
+      </c>
+      <c r="F76">
+        <v>583</v>
+      </c>
+      <c r="G76">
+        <v>4156</v>
+      </c>
+      <c r="H76">
+        <v>6973</v>
+      </c>
+      <c r="I76">
+        <v>139</v>
+      </c>
+      <c r="J76">
+        <v>1120</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>612</v>
+      </c>
+      <c r="O76">
+        <v>2641</v>
+      </c>
+      <c r="P76">
+        <v>1862</v>
+      </c>
+      <c r="Q76">
+        <v>-327</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4332</v>
+      </c>
+      <c r="U76">
+        <v>1943</v>
+      </c>
+      <c r="V76">
+        <v>143</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-549</v>
+      </c>
+      <c r="Y76">
+        <v>698</v>
+      </c>
+      <c r="Z76">
+        <v>155</v>
+      </c>
+      <c r="AA76">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>234</v>
+      </c>
+      <c r="D77">
+        <v>907</v>
+      </c>
+      <c r="E77">
+        <v>541</v>
+      </c>
+      <c r="F77">
+        <v>657</v>
+      </c>
+      <c r="G77">
+        <v>4222</v>
+      </c>
+      <c r="H77">
+        <v>7089</v>
+      </c>
+      <c r="I77">
+        <v>143</v>
+      </c>
+      <c r="J77">
+        <v>1131</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>619</v>
+      </c>
+      <c r="O77">
+        <v>2650</v>
+      </c>
+      <c r="P77">
+        <v>1871</v>
+      </c>
+      <c r="Q77">
+        <v>-128</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4439</v>
+      </c>
+      <c r="U77">
+        <v>1815</v>
+      </c>
+      <c r="V77">
+        <v>267</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-173</v>
+      </c>
+      <c r="Y77">
+        <v>691</v>
+      </c>
+      <c r="Z77">
+        <v>-169</v>
+      </c>
+      <c r="AA77">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>239</v>
+      </c>
+      <c r="D78">
+        <v>952</v>
+      </c>
+      <c r="E78">
+        <v>573</v>
+      </c>
+      <c r="F78">
+        <v>668</v>
+      </c>
+      <c r="G78">
+        <v>4451</v>
+      </c>
+      <c r="H78">
+        <v>7316</v>
+      </c>
+      <c r="I78">
+        <v>149</v>
+      </c>
+      <c r="J78">
+        <v>1141</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>665</v>
+      </c>
+      <c r="O78">
+        <v>2703</v>
+      </c>
+      <c r="P78">
+        <v>1881</v>
+      </c>
+      <c r="Q78">
+        <v>227</v>
+      </c>
+      <c r="R78">
+        <v>43828</v>
+      </c>
+      <c r="S78">
+        <v>7700</v>
+      </c>
+      <c r="T78">
+        <v>4613</v>
+      </c>
+      <c r="U78">
+        <v>2042</v>
+      </c>
+      <c r="V78">
+        <v>443</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-115</v>
+      </c>
+      <c r="Y78">
+        <v>695</v>
+      </c>
+      <c r="Z78">
+        <v>-29</v>
+      </c>
+      <c r="AA78">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>173</v>
+      </c>
+      <c r="D79">
+        <v>859</v>
+      </c>
+      <c r="E79">
+        <v>472</v>
+      </c>
+      <c r="F79">
+        <v>626</v>
+      </c>
+      <c r="G79">
+        <v>4324</v>
+      </c>
+      <c r="H79">
+        <v>7261</v>
+      </c>
+      <c r="I79">
+        <v>130</v>
+      </c>
+      <c r="J79">
+        <v>652</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1054</v>
+      </c>
+      <c r="O79">
+        <v>2626</v>
+      </c>
+      <c r="P79">
+        <v>1893</v>
+      </c>
+      <c r="Q79">
+        <v>-51</v>
+      </c>
+      <c r="R79">
+        <v>43919</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4635</v>
+      </c>
+      <c r="U79">
+        <v>1991</v>
+      </c>
+      <c r="V79">
+        <v>281</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-191</v>
+      </c>
+      <c r="Y79">
+        <v>696</v>
+      </c>
+      <c r="Z79">
+        <v>37</v>
+      </c>
+      <c r="AA79">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>47</v>
+      </c>
+      <c r="D80">
+        <v>633</v>
+      </c>
+      <c r="E80">
+        <v>385</v>
+      </c>
+      <c r="F80">
+        <v>435</v>
+      </c>
+      <c r="G80">
+        <v>4194</v>
+      </c>
+      <c r="H80">
+        <v>7248</v>
+      </c>
+      <c r="I80">
+        <v>135</v>
+      </c>
+      <c r="J80">
+        <v>659</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1115</v>
+      </c>
+      <c r="O80">
+        <v>2685</v>
+      </c>
+      <c r="P80">
+        <v>1891</v>
+      </c>
+      <c r="Q80">
+        <v>-221</v>
+      </c>
+      <c r="R80">
+        <v>44010</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4563</v>
+      </c>
+      <c r="U80">
+        <v>1770</v>
+      </c>
+      <c r="V80">
+        <v>240</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-143</v>
+      </c>
+      <c r="Y80">
+        <v>681</v>
+      </c>
+      <c r="Z80">
+        <v>-186</v>
+      </c>
+      <c r="AA80">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>179</v>
+      </c>
+      <c r="D81">
+        <v>794</v>
+      </c>
+      <c r="E81">
+        <v>464</v>
+      </c>
+      <c r="F81">
+        <v>533</v>
+      </c>
+      <c r="G81">
+        <v>4329</v>
+      </c>
+      <c r="H81">
+        <v>7404</v>
+      </c>
+      <c r="I81">
+        <v>156</v>
+      </c>
+      <c r="J81">
+        <v>666</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1115</v>
+      </c>
+      <c r="O81">
+        <v>2704</v>
+      </c>
+      <c r="P81">
+        <v>1905</v>
+      </c>
+      <c r="Q81">
+        <v>-9</v>
+      </c>
+      <c r="R81">
+        <v>44101</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4700</v>
+      </c>
+      <c r="U81">
+        <v>1761</v>
+      </c>
+      <c r="V81">
+        <v>153</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-101</v>
+      </c>
+      <c r="Y81">
+        <v>678</v>
+      </c>
+      <c r="Z81">
+        <v>-14</v>
+      </c>
+      <c r="AA81">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>257</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>953</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>487</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>637</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4483</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7585</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>192</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>673</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1244</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2891</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1906</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>49</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44199</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>7800</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4694</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1810</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>406</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-331</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>671</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>28</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>257</v>
       </c>
     </row>
